--- a/data/hotels_by_city/Houston/Houston_shard_159.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_159.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107924-Reviews-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Houston-Marriott-Westchase.h17456.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1669 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r576631441-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107924</t>
+  </si>
+  <si>
+    <t>576631441</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Corporate but efficient and welcoming</t>
+  </si>
+  <si>
+    <t>Regularly visit here on business.  Food &amp; drink limited (small bar &amp; bistro with very limited menu), but this doesn't really matter too much as there is a food mart right next door, and a number of restaurants within easy walking distance.  Standard corporate furnishings ... I value the full-size desk in every room (many places I've stayed in don't have this) and free open WiFi.  But - as others have said - the best thing is the staff.  Whenever I arrive tired from a long trip they are unfailing welcoming, and the Bistro staff make an effort to brighten up breakfast every day.  Good choice for a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Regularly visit here on business.  Food &amp; drink limited (small bar &amp; bistro with very limited menu), but this doesn't really matter too much as there is a food mart right next door, and a number of restaurants within easy walking distance.  Standard corporate furnishings ... I value the full-size desk in every room (many places I've stayed in don't have this) and free open WiFi.  But - as others have said - the best thing is the staff.  Whenever I arrive tired from a long trip they are unfailing welcoming, and the Bistro staff make an effort to brighten up breakfast every day.  Good choice for a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r564614561-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564614561</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Comfortable room</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend while visiting family and found the room very comfortable.  The location on Westheimer is convenient.No free breakfast, but you have a fridge, microwave and it's next door to Kroger.Because it's set back from the main road it's very quiet. This is our second stay here and we'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend while visiting family and found the room very comfortable.  The location on Westheimer is convenient.No free breakfast, but you have a fridge, microwave and it's next door to Kroger.Because it's set back from the main road it's very quiet. This is our second stay here and we'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r561797949-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561797949</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Easy access to central Houston, but best quality is staff.</t>
+  </si>
+  <si>
+    <t>I've stayed at the Courtyard Houston Westchase numerous times over the course of the past year due to easy access to our offices. The location is great, the newly remodeled rooms helped, but the best part continues to be their dedicated staff. From a professional check-in and welcome back to a cheerful morning greeting every day when one gets breakfast (honestly the best two ladies work at this location, and always make me feel welcome).Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>I've stayed at the Courtyard Houston Westchase numerous times over the course of the past year due to easy access to our offices. The location is great, the newly remodeled rooms helped, but the best part continues to be their dedicated staff. From a professional check-in and welcome back to a cheerful morning greeting every day when one gets breakfast (honestly the best two ladies work at this location, and always make me feel welcome).Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r536986466-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536986466</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Kindness and service!</t>
+  </si>
+  <si>
+    <t>After a terrible experience at the JW Marriott Downtown, we were without a place to stay. We booked a room here last minute trying to salvage any piece of our anniversary weekend. When we checked in they were kind and offered us a lower rate and a room upgrade to try to brighten our mood. We went out to try to still try to enjoy our evening and we found the sweetest card under our door! Thank you, Erin for going above and beyond to make our anniversary better!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>After a terrible experience at the JW Marriott Downtown, we were without a place to stay. We booked a room here last minute trying to salvage any piece of our anniversary weekend. When we checked in they were kind and offered us a lower rate and a room upgrade to try to brighten our mood. We went out to try to still try to enjoy our evening and we found the sweetest card under our door! Thank you, Erin for going above and beyond to make our anniversary better!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r490412586-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490412586</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Nice staff, but room full of bugs</t>
+  </si>
+  <si>
+    <t>The staff is as friendly and helpful as they can be.  The lobby and bar area are well kept and when I initially entered my room it was straight, neat and looked very clean.  Unfortunately I was at the end of the hall next to an outside door and in the morning had a bug problem.  Six rollie pollies and one large palmetto bug (3 inch cockroach) in the room.  Only due to this do I rate the hotel as poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>The staff is as friendly and helpful as they can be.  The lobby and bar area are well kept and when I initially entered my room it was straight, neat and looked very clean.  Unfortunately I was at the end of the hall next to an outside door and in the morning had a bug problem.  Six rollie pollies and one large palmetto bug (3 inch cockroach) in the room.  Only due to this do I rate the hotel as poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r488592174-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488592174</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Very helpful staff</t>
+  </si>
+  <si>
+    <t>Jasmine and Muhammad at the front desk went out of their way to be helpful and were always cheerful. My room was cleaned by housekeeping everyday without being asked and the ladies at the breakfast counter were ready to make adjustments to the food on the menu to incorporate my allergies. The hotel provides a shuttle service that will take you anywhere within a distance of 3miles free of charge.That said, the hotel building seemed old, the rooms were small and mini fridge was empty. To buy anything you need to go down to a lil room next to the concierge that is stocked with sandwiches, candy and some small essential electronics.They do not keep or provide plug adapters, their sockets are essentially American and you need to walk maybe a km to a store named 'Sunrise' to find an adapter. The nearby kroger doesn't stock adapters.The in house restaurant menu is very limited and doesn't take into consideration food allergies.There are however a good number of restaurants around that provide gluten free food options. Download the Zomato app and filter for gluten free options. There are restaurants within walking distance and ones that deliver.The pool facing rooms have other rooms over looking them, but have a good bit of sunlight streaming in.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Jasmine and Muhammad at the front desk went out of their way to be helpful and were always cheerful. My room was cleaned by housekeeping everyday without being asked and the ladies at the breakfast counter were ready to make adjustments to the food on the menu to incorporate my allergies. The hotel provides a shuttle service that will take you anywhere within a distance of 3miles free of charge.That said, the hotel building seemed old, the rooms were small and mini fridge was empty. To buy anything you need to go down to a lil room next to the concierge that is stocked with sandwiches, candy and some small essential electronics.They do not keep or provide plug adapters, their sockets are essentially American and you need to walk maybe a km to a store named 'Sunrise' to find an adapter. The nearby kroger doesn't stock adapters.The in house restaurant menu is very limited and doesn't take into consideration food allergies.There are however a good number of restaurants around that provide gluten free food options. Download the Zomato app and filter for gluten free options. There are restaurants within walking distance and ones that deliver.The pool facing rooms have other rooms over looking them, but have a good bit of sunlight streaming in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r436535573-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436535573</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Nice stay with a great staff</t>
+  </si>
+  <si>
+    <t>Was only here for one night but found the hotel to be extremely convenient when on business in the Westchase area of Houston. Checked in late and was greeted with bottled water and cookies, can't go wrong there. In the morning the shuttle was able to take me to my office for an early meeting. Nice alternative to the larger Marriott. The staff was very nice and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Was only here for one night but found the hotel to be extremely convenient when on business in the Westchase area of Houston. Checked in late and was greeted with bottled water and cookies, can't go wrong there. In the morning the shuttle was able to take me to my office for an early meeting. Nice alternative to the larger Marriott. The staff was very nice and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r419945732-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419945732</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Remodeling but still not an excuse</t>
+  </si>
+  <si>
+    <t>Not a great stay, but for the $$ it was OK.  As a "rewards" member we ask for extra pillows, which of course we did NOT get.  Room was small and nothing special.  Convenience was the factor for us, and it was convenient so I'll give it that, and free parking in a secure lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Kyle M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Not a great stay, but for the $$ it was OK.  As a "rewards" member we ask for extra pillows, which of course we did NOT get.  Room was small and nothing special.  Convenience was the factor for us, and it was convenient so I'll give it that, and free parking in a secure lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r418073696-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418073696</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Great value and great staff!</t>
+  </si>
+  <si>
+    <t>I am big on customer service... Christian was the best he was helpful professional and offered some great options. The room was kind of small but nice and clean! The courtyard was awesome and the hot tub was nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r388598620-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388598620</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Nice and Quiet</t>
+  </si>
+  <si>
+    <t>The hotel is located off major streets and close to freeway. It is surrounded by shopping center. Rooms are nice and clean. Customer service was great. They need to keep an eye on the hallways and the elevator floor (I did see wear and tear and a piece of gum on elevator floor).  Parking was average but I was able to find a place. Otherwise no problems, would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>norma m, Front Office Manager at Courtyard Houston Westchase, responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is located off major streets and close to freeway. It is surrounded by shopping center. Rooms are nice and clean. Customer service was great. They need to keep an eye on the hallways and the elevator floor (I did see wear and tear and a piece of gum on elevator floor).  Parking was average but I was able to find a place. Otherwise no problems, would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r379888709-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379888709</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>"Anti Sound Bar"</t>
+  </si>
+  <si>
+    <t>My wife and I had great time in Houston during our visit. We also had a great time staying at Courtyard by Marriot Hotel. The hotel was good with a standart services of Marriot. The funny things happened when I turned on my wireless soundbar Bo** speaker at the room, then finally a few minutes later receptionist call me and ask me to lower the sound because of complaint from the room next door. I think they should provide impermeable wall system to guarantee the privacy of guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I had great time in Houston during our visit. We also had a great time staying at Courtyard by Marriot Hotel. The hotel was good with a standart services of Marriot. The funny things happened when I turned on my wireless soundbar Bo** speaker at the room, then finally a few minutes later receptionist call me and ask me to lower the sound because of complaint from the room next door. I think they should provide impermeable wall system to guarantee the privacy of guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r377725526-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377725526</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Front Desk Person has no idea where rooms are in the hotel---TWICE</t>
+  </si>
+  <si>
+    <t>I asked for a room close to an entrance down the hallway from room 101...was given key card to room 144...which was the complete opposite side of hotel.  Went back and got key card to room 119 and was told it was half-way down the hall from room 101...it is actually more 3/4 or 4/5 down the hall.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>I asked for a room close to an entrance down the hallway from room 101...was given key card to room 144...which was the complete opposite side of hotel.  Went back and got key card to room 119 and was told it was half-way down the hall from room 101...it is actually more 3/4 or 4/5 down the hall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r360614520-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360614520</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Want a Great Stay?</t>
+  </si>
+  <si>
+    <t>The service at check in was great w Miss Lily. My room was spotless, and the bed was really comfy. I travel all the time, and I was very pleasantly surprised by the quality of the food at the Bistro here. George makes amazing Buffalo wings, is happy and smiling...he makes a person feel right at home! He really helped me select from the menu and made choices much easier. All in all, a wonderful place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded April 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2016</t>
+  </si>
+  <si>
+    <t>The service at check in was great w Miss Lily. My room was spotless, and the bed was really comfy. I travel all the time, and I was very pleasantly surprised by the quality of the food at the Bistro here. George makes amazing Buffalo wings, is happy and smiling...he makes a person feel right at home! He really helped me select from the menu and made choices much easier. All in all, a wonderful place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r352752631-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352752631</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>BAD COURTYARD</t>
+  </si>
+  <si>
+    <t>Never again. Toilet broke in the middle of the night and we both had an upset stomach and diarrhea from the food in the restaurant the next day. We spoke to the General Manager, Ms. Norma Martinez, who ensured us that it could not have been the food at her restaurant since nobody has ever complained to her before. I bet that's what she tells all her guests. It just did not work for us. Not sure how this hotel was able to get Tripadvisor's certificate of excellence. To me it's a case for the health department.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Never again. Toilet broke in the middle of the night and we both had an upset stomach and diarrhea from the food in the restaurant the next day. We spoke to the General Manager, Ms. Norma Martinez, who ensured us that it could not have been the food at her restaurant since nobody has ever complained to her before. I bet that's what she tells all her guests. It just did not work for us. Not sure how this hotel was able to get Tripadvisor's certificate of excellence. To me it's a case for the health department.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r348291794-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348291794</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>The staff make it worth your stay</t>
+  </si>
+  <si>
+    <t>The Courtyard Houston Westchase isn't the prettiest hotel you will ever stay at, but I would stay here again in a heartbeat simply for the service I received from the staff.Checkin was a breeze, and the staff was very courteous.  While the hotel is nice, it does show its age in some areas, but overall is very comfortable and accommodating.  I would like to see microwaves in all of the rooms and the A/C in our room needs an update, but I suppose they are updating as they go.We experienced an issue with the mini fridge in our room, it was leaking water on the inside and ruined some fresh chocolates we had purchased from the Russell Stover store in Corsicana, including a beautiful $4 chocolate covered strawberry.  We mentioned the issue while checking out, and the young man (I believe his name was Marco) at the front desk offered to speak to Expedia on our behalf and request that they refund us for 1 night of our stay due to the inconvenience.  He handled Expedia like a champ, and because of how we were taken care of, we will be sure to stay at the Courtyard every time we come to visit our family in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>The Courtyard Houston Westchase isn't the prettiest hotel you will ever stay at, but I would stay here again in a heartbeat simply for the service I received from the staff.Checkin was a breeze, and the staff was very courteous.  While the hotel is nice, it does show its age in some areas, but overall is very comfortable and accommodating.  I would like to see microwaves in all of the rooms and the A/C in our room needs an update, but I suppose they are updating as they go.We experienced an issue with the mini fridge in our room, it was leaking water on the inside and ruined some fresh chocolates we had purchased from the Russell Stover store in Corsicana, including a beautiful $4 chocolate covered strawberry.  We mentioned the issue while checking out, and the young man (I believe his name was Marco) at the front desk offered to speak to Expedia on our behalf and request that they refund us for 1 night of our stay due to the inconvenience.  He handled Expedia like a champ, and because of how we were taken care of, we will be sure to stay at the Courtyard every time we come to visit our family in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r334801313-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334801313</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Nice Marriott</t>
+  </si>
+  <si>
+    <t>Recently stay here for a couple nights and was very pleased with the service and professionalism except for one irritating problem. First off, the front line staff for check in was very polite and seemed to really care about hotel guest being comfortable. Very nice and clean room, good bed and pillows, however the AC unit in room 310 was unusually loud when it would circulate on and off. When the unit would switch on I would have to increase the TV volume to hear and when the unit would shut off, I would have to grab the remote and lower volume on TV. This was quite annoying and frustrating for the two nights to keep adjusting the volume because of the loud noise from the unit. Upon checking out I was asked how was the stay and I shared my honest opinion concerning the room  with the same lady that had checked me in. She seemed really concerned and apologized, saying she wished I had called down and requested a different room. She then offered me Bonus reward points and then brought the manager out front to speak with me. The manager, Mrs. Norman I believe was her name seemed equally as concerned and offered to comp one night of my stay. I was extremely pleased as to how they really wanted my accommodations to be well. I would highly recommend this property and stay again myself without reservation...Recently stay here for a couple nights and was very pleased with the service and professionalism except for one irritating problem. First off, the front line staff for check in was very polite and seemed to really care about hotel guest being comfortable. Very nice and clean room, good bed and pillows, however the AC unit in room 310 was unusually loud when it would circulate on and off. When the unit would switch on I would have to increase the TV volume to hear and when the unit would shut off, I would have to grab the remote and lower volume on TV. This was quite annoying and frustrating for the two nights to keep adjusting the volume because of the loud noise from the unit. Upon checking out I was asked how was the stay and I shared my honest opinion concerning the room  with the same lady that had checked me in. She seemed really concerned and apologized, saying she wished I had called down and requested a different room. She then offered me Bonus reward points and then brought the manager out front to speak with me. The manager, Mrs. Norman I believe was her name seemed equally as concerned and offered to comp one night of my stay. I was extremely pleased as to how they really wanted my accommodations to be well. I would highly recommend this property and stay again myself without reservation because of the leadership and professional approach they take in caring for their guess. Thank you Mrs. NormanMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded December 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2015</t>
+  </si>
+  <si>
+    <t>Recently stay here for a couple nights and was very pleased with the service and professionalism except for one irritating problem. First off, the front line staff for check in was very polite and seemed to really care about hotel guest being comfortable. Very nice and clean room, good bed and pillows, however the AC unit in room 310 was unusually loud when it would circulate on and off. When the unit would switch on I would have to increase the TV volume to hear and when the unit would shut off, I would have to grab the remote and lower volume on TV. This was quite annoying and frustrating for the two nights to keep adjusting the volume because of the loud noise from the unit. Upon checking out I was asked how was the stay and I shared my honest opinion concerning the room  with the same lady that had checked me in. She seemed really concerned and apologized, saying she wished I had called down and requested a different room. She then offered me Bonus reward points and then brought the manager out front to speak with me. The manager, Mrs. Norman I believe was her name seemed equally as concerned and offered to comp one night of my stay. I was extremely pleased as to how they really wanted my accommodations to be well. I would highly recommend this property and stay again myself without reservation...Recently stay here for a couple nights and was very pleased with the service and professionalism except for one irritating problem. First off, the front line staff for check in was very polite and seemed to really care about hotel guest being comfortable. Very nice and clean room, good bed and pillows, however the AC unit in room 310 was unusually loud when it would circulate on and off. When the unit would switch on I would have to increase the TV volume to hear and when the unit would shut off, I would have to grab the remote and lower volume on TV. This was quite annoying and frustrating for the two nights to keep adjusting the volume because of the loud noise from the unit. Upon checking out I was asked how was the stay and I shared my honest opinion concerning the room  with the same lady that had checked me in. She seemed really concerned and apologized, saying she wished I had called down and requested a different room. She then offered me Bonus reward points and then brought the manager out front to speak with me. The manager, Mrs. Norman I believe was her name seemed equally as concerned and offered to comp one night of my stay. I was extremely pleased as to how they really wanted my accommodations to be well. I would highly recommend this property and stay again myself without reservation because of the leadership and professional approach they take in caring for their guess. Thank you Mrs. NormanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r326021369-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326021369</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Great location for business in Houston</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay for business in Houston's Westchase area or even the I10 energy corridor. Although it isn't fancy, it has nice rooms, a pool, a few treadmills and a pretty good little restaurant for breakfast. It is located just off Westheimer Road behind Krogers and offers quick access to food, shopping, Sam Houston tollway and the I10.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay for business in Houston's Westchase area or even the I10 energy corridor. Although it isn't fancy, it has nice rooms, a pool, a few treadmills and a pretty good little restaurant for breakfast. It is located just off Westheimer Road behind Krogers and offers quick access to food, shopping, Sam Houston tollway and the I10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r316214864-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316214864</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>HARD OLD MATTRESSES!!!!</t>
+  </si>
+  <si>
+    <t>Old HARD MATTRESSES!! Need I say more? Does it really matter how clean the room or how courteous the staff if you can't get a good nights sleep because the mattresses are so uncomfortable? Too bad because this hotel has a lot of other things going for it such as good location etc but if I continually wake up, this is my second night, because my hip and back hurt, well, put this on your DO NOT STAY list. Most recently I was in Raleigh on business and stayed at a two star Days Inn that had a much better mattress than here. When they say this hotel is recently renovated they obviously forgot to include the mattresses!MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Old HARD MATTRESSES!! Need I say more? Does it really matter how clean the room or how courteous the staff if you can't get a good nights sleep because the mattresses are so uncomfortable? Too bad because this hotel has a lot of other things going for it such as good location etc but if I continually wake up, this is my second night, because my hip and back hurt, well, put this on your DO NOT STAY list. Most recently I was in Raleigh on business and stayed at a two star Days Inn that had a much better mattress than here. When they say this hotel is recently renovated they obviously forgot to include the mattresses!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r303698213-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303698213</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Clean room, nice staff, but the location has gone downhill</t>
+  </si>
+  <si>
+    <t>While the hotel is a above average, the location is not what it once was.  It is hard to separate the two, nice hotel, area not so much.  The hotel has been proactive by putting in a gated entry, but this also speaks to the surrounding area.  If you are eating in the area make sure you do not leave computers etc. in your car.  I would consider this a business hotel when you need to be in the immediate area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2015</t>
+  </si>
+  <si>
+    <t>While the hotel is a above average, the location is not what it once was.  It is hard to separate the two, nice hotel, area not so much.  The hotel has been proactive by putting in a gated entry, but this also speaks to the surrounding area.  If you are eating in the area make sure you do not leave computers etc. in your car.  I would consider this a business hotel when you need to be in the immediate area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r299008508-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299008508</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Very Comfortable, Quiet Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is located right behind the Kroger on Westheimer in the Westchase Area of Houston.  Great location;  quiet.  We had a suite - wonderful room with plenty of space to stretch out and relax.  The staff is excellent.  Handle any question or whatever you need.  Beds are comfortable.  Good towels.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel is located right behind the Kroger on Westheimer in the Westchase Area of Houston.  Great location;  quiet.  We had a suite - wonderful room with plenty of space to stretch out and relax.  The staff is excellent.  Handle any question or whatever you need.  Beds are comfortable.  Good towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r296751040-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296751040</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>👍👍👍</t>
+  </si>
+  <si>
+    <t>I was really surprised with this hotel. The staff was professional &amp; the room was wonderful!  We loved it &amp; it was way better than we expected . The cafe &amp; food were excellent. Pool was ok . The area was safe . MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, Manager at Courtyard Houston Westchase, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>I was really surprised with this hotel. The staff was professional &amp; the room was wonderful!  We loved it &amp; it was way better than we expected . The cafe &amp; food were excellent. Pool was ok . The area was safe . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r284739394-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284739394</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Wedding weekend at Courtyard</t>
+  </si>
+  <si>
+    <t>We couldn't have asked for a better experience.  Prior to the wedding we looked at several hotels in the area and while there were others that were fine, Courtyard's staff and their willingness to work with the needs of our group is what prompted us to choose them.  We were not disappointed.  From the moment (and even weeks before) they were helpful, friendly, and so courteous.  Many in our party had glowing reviews all weekend.  Harriet at the front desk was the best and always smiling.The rooms were very comfortable.  They have a small refrigerator in the regular room and a larger one in the suite. The modern lobby was nice size and accommodated our group after the wedding.  And while I didn't use the pool and hot tub, some in our group did and thoroughly enjoyed it.  There's wifi and business center if needed.  There's a grocery store right across the small parking lot and a gated parking lot that you can only access with a room key.  There are 2 malls and numerous restaurants just minutes away.  Courtyard helped to make our daughter's wedding weekend go off perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>We couldn't have asked for a better experience.  Prior to the wedding we looked at several hotels in the area and while there were others that were fine, Courtyard's staff and their willingness to work with the needs of our group is what prompted us to choose them.  We were not disappointed.  From the moment (and even weeks before) they were helpful, friendly, and so courteous.  Many in our party had glowing reviews all weekend.  Harriet at the front desk was the best and always smiling.The rooms were very comfortable.  They have a small refrigerator in the regular room and a larger one in the suite. The modern lobby was nice size and accommodated our group after the wedding.  And while I didn't use the pool and hot tub, some in our group did and thoroughly enjoyed it.  There's wifi and business center if needed.  There's a grocery store right across the small parking lot and a gated parking lot that you can only access with a room key.  There are 2 malls and numerous restaurants just minutes away.  Courtyard helped to make our daughter's wedding weekend go off perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r269165754-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269165754</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>Located in the west side of Houston in a residencial area it is convenient to restaurants and access to major freeways. We got a room on the ground floor facing the courtyard which made it very quiet. The king bed was comfortable and there was room for a sofa and desk with a pull out table. It had a fridge but no microwave. The bathroom was spacious and had very fluffy towels. It was also located next to a drug/super market so everything was convenient for supplies. Lots of restaurants down on Westheimer road and it can take you directly downtown without going back on the freeway. They also had secured parking behind a gate but I never felt I required it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Located in the west side of Houston in a residencial area it is convenient to restaurants and access to major freeways. We got a room on the ground floor facing the courtyard which made it very quiet. The king bed was comfortable and there was room for a sofa and desk with a pull out table. It had a fridge but no microwave. The bathroom was spacious and had very fluffy towels. It was also located next to a drug/super market so everything was convenient for supplies. Lots of restaurants down on Westheimer road and it can take you directly downtown without going back on the freeway. They also had secured parking behind a gate but I never felt I required it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r268567415-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268567415</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Checked in 4/24-4/26  Nice hotel very friendly staff  my only compliant was  returning to a dirty room  5:00 P.M. It was an inconvenience to wait for a housekeeper but overall  I enjoyed my stay in HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Checked in 4/24-4/26  Nice hotel very friendly staff  my only compliant was  returning to a dirty room  5:00 P.M. It was an inconvenience to wait for a housekeeper but overall  I enjoyed my stay in HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r257098244-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257098244</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>The people make all the difference</t>
+  </si>
+  <si>
+    <t>A no frills hotel that is made a real pleasure by the friendly and welcoming staff - particularly the ladies who serve breakfast at the deli. They always recognise me and are genuinely happy to see me. They always spend time to talk and they make all the difference and they should be recognised for the difference they make. The rooms are clean, tidy and comfortable. I have the choice to stay at more expensive hotels with more facilities when I come to Houston but this one is the best for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>A no frills hotel that is made a real pleasure by the friendly and welcoming staff - particularly the ladies who serve breakfast at the deli. They always recognise me and are genuinely happy to see me. They always spend time to talk and they make all the difference and they should be recognised for the difference they make. The rooms are clean, tidy and comfortable. I have the choice to stay at more expensive hotels with more facilities when I come to Houston but this one is the best for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r254770190-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254770190</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Room was clean except sticky tabletops.  Bed was comfortable.Quiet--could put fan on continuously though a/c does cycle.  Has sleep mode for refrigerator.Internet relatively slow.Minor design problem with small sink/countertop/handtowel rack.  Towel rack is full of clean towels and no place to put them away to be able to hang wet towels.Staff friendly.  Did have difficulty checking us in and out.  We had a separate reservation for an additional night we decided to add on and that caused confusion.Gated parking was fine.  Proximity of Kroger handy.  Traffic light onto Westheimer next to Kroger helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean except sticky tabletops.  Bed was comfortable.Quiet--could put fan on continuously though a/c does cycle.  Has sleep mode for refrigerator.Internet relatively slow.Minor design problem with small sink/countertop/handtowel rack.  Towel rack is full of clean towels and no place to put them away to be able to hang wet towels.Staff friendly.  Did have difficulty checking us in and out.  We had a separate reservation for an additional night we decided to add on and that caused confusion.Gated parking was fine.  Proximity of Kroger handy.  Traffic light onto Westheimer next to Kroger helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r251295976-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251295976</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, quiet and good location</t>
+  </si>
+  <si>
+    <t>Nice hotel. I have stayed at the residence inn next door a few times and this was the first time here. Rooms are spacious and comfortable, bathrooms are very spacious. The first floor even number rooms have sliding doors that open up to the pool / courtyard area. Business center computers are very fast. Starbucks available in the bistro. Very good front desk staff. Special thanks to Cody, Harriet and Stacy for making our stay enjoyable. I would strongly recommend this hotel, both for business and family trips. Well located.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel. I have stayed at the residence inn next door a few times and this was the first time here. Rooms are spacious and comfortable, bathrooms are very spacious. The first floor even number rooms have sliding doors that open up to the pool / courtyard area. Business center computers are very fast. Starbucks available in the bistro. Very good front desk staff. Special thanks to Cody, Harriet and Stacy for making our stay enjoyable. I would strongly recommend this hotel, both for business and family trips. Well located.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r238889244-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238889244</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Quiet Courtyard</t>
+  </si>
+  <si>
+    <t>Tucked back off Westheimer, my two nights were quiet and uneventful.  Would definitely return. The campus even had fenced in secured parking to where we didn't have to worry about coming in late at night.  It was nice having a microwave sink and counter area for food preparation in the mornings.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, Front Office Manager at Courtyard Houston Westchase, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Tucked back off Westheimer, my two nights were quiet and uneventful.  Would definitely return. The campus even had fenced in secured parking to where we didn't have to worry about coming in late at night.  It was nice having a microwave sink and counter area for food preparation in the mornings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r237984596-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237984596</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Not worthy of the Marriott brand</t>
+  </si>
+  <si>
+    <t>This is a subpar Marriott Courtyard located in the Westchase area of Houston. The hotel is situated back from the road, behind a Kroger grocery store. The parking lot is enclosed by a large metal gate, not the most welcoming of sites, but I suppose it does provide security for vehicles. The lobby is remodeled and modern and the front desk staff is very friendly and welcoming. Check in was fast and mobile check in worked well as my room was pre-assigned and ready to go. There was no acknowledgment of my Gold status. The room itself is average size. The bed is a standard Courtyard bed and comfortable. But that's where the positives end. The AC is an old-school wall/window unit. Loud doesn't begin to describe the way this thing operates. When I asked the front desk if it was normal or just a bad unit I was told it was normal. It was loud to the point where I turned it off so I could sleep and could still hear units in adjoining rooms. This simply isn't ok for a $200 a night hotel in the Marriott portfolio. The bathroom tile needs redone as it looks well worn, as well. The room was clean, which was good, but that should be a given.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Eric R, Manager at Courtyard Houston Westchase, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>This is a subpar Marriott Courtyard located in the Westchase area of Houston. The hotel is situated back from the road, behind a Kroger grocery store. The parking lot is enclosed by a large metal gate, not the most welcoming of sites, but I suppose it does provide security for vehicles. The lobby is remodeled and modern and the front desk staff is very friendly and welcoming. Check in was fast and mobile check in worked well as my room was pre-assigned and ready to go. There was no acknowledgment of my Gold status. The room itself is average size. The bed is a standard Courtyard bed and comfortable. But that's where the positives end. The AC is an old-school wall/window unit. Loud doesn't begin to describe the way this thing operates. When I asked the front desk if it was normal or just a bad unit I was told it was normal. It was loud to the point where I turned it off so I could sleep and could still hear units in adjoining rooms. This simply isn't ok for a $200 a night hotel in the Marriott portfolio. The bathroom tile needs redone as it looks well worn, as well. The room was clean, which was good, but that should be a given.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r235714227-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235714227</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Great hotel &amp; Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 5 days on a business trip to the Houston area. I arrived on a Sunday and departed on a Friday. Upon arrival, I was greeted by Jason at the front desk. Jason was very welcoming and went above and beyond to ensure I felt 'at home' throughout my stay. I encountered many staff during my stay and all of them has a smile on their face and greeted me. My rooms was clean and spacious. I was on the first floor and had an exit from my room to the pool area. Although I did not use the pool, it was nice to have that access should I have decided to use it. I will stay here on future trips and recommend to anyone needing accommodations in the Westchase area to stay here. Thank you, Courtyard Westchase for a great visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 5 days on a business trip to the Houston area. I arrived on a Sunday and departed on a Friday. Upon arrival, I was greeted by Jason at the front desk. Jason was very welcoming and went above and beyond to ensure I felt 'at home' throughout my stay. I encountered many staff during my stay and all of them has a smile on their face and greeted me. My rooms was clean and spacious. I was on the first floor and had an exit from my room to the pool area. Although I did not use the pool, it was nice to have that access should I have decided to use it. I will stay here on future trips and recommend to anyone needing accommodations in the Westchase area to stay here. Thank you, Courtyard Westchase for a great visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r230712474-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230712474</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Good for the West Side</t>
+  </si>
+  <si>
+    <t>Having to fly into Katy for a weekend trip, we looked into properties in the Katy area. The Marriott Westchase came up. Being we stay predominantly Marriott properties, this was a no brainer.
+Drive up, greeting and check in were flawless. Valet asked twice if I was going to need the car and he would keep it out if needed. That was nice.
+Check in was fast, professional and friendly. Hotel lobby is nice. Nice Atrium style property. 
+Checking in, the rooms were ready, clean and typical Marriott rooms. Except for, they were a bit small and the bedroom lamps were very old school (no 110v) which made it a bit frustrating. 
+The bar was OK, nothing great here. When asked for snacks I get a story about how they stopped serving "free" snacks because someone sued a hotel over choking over free snacks. At their prices and their location, they should have a bag of trash or nuts. If they can do it at the top properties across the nation, I'm sure they could do it there.
+I ordered the housemade potato chips. They were probably good a couple days before I got them. So then ordered the chips and salsa. Don't really want to rant here, but if you can't serve a bowl of chips and a decent salsa anywhere in the state of Texas, just don't. The prices were astronomical for the drinks there on a Friday...Having to fly into Katy for a weekend trip, we looked into properties in the Katy area. The Marriott Westchase came up. Being we stay predominantly Marriott properties, this was a no brainer.Drive up, greeting and check in were flawless. Valet asked twice if I was going to need the car and he would keep it out if needed. That was nice.Check in was fast, professional and friendly. Hotel lobby is nice. Nice Atrium style property. Checking in, the rooms were ready, clean and typical Marriott rooms. Except for, they were a bit small and the bedroom lamps were very old school (no 110v) which made it a bit frustrating. The bar was OK, nothing great here. When asked for snacks I get a story about how they stopped serving "free" snacks because someone sued a hotel over choking over free snacks. At their prices and their location, they should have a bag of trash or nuts. If they can do it at the top properties across the nation, I'm sure they could do it there.I ordered the housemade potato chips. They were probably good a couple days before I got them. So then ordered the chips and salsa. Don't really want to rant here, but if you can't serve a bowl of chips and a decent salsa anywhere in the state of Texas, just don't. The prices were astronomical for the drinks there on a Friday afternoon. Made me think I was at the Fountainbleu in Miami.Next morning was Breakfast downstairs. One of the better breakfasts I've eaten lately. Judy and Latoya need to be commended for their service and making not just me, but everyone they waited on; feel at home. Great job, great REAL LIVE bacon, not that razor thin stuff.Had room service a couple times, pretty good.Back to the room. Bed was a bit dated, mattress seemed a little old, not very supportive, but was ok. You get the feel that this Marriott is due for a nice upgrade soon. All in all it was a  good stay. The property needs work, but I'd stay there again just for the staff. They are actually that good and it shows.MoreShow less</t>
+  </si>
+  <si>
+    <t>Having to fly into Katy for a weekend trip, we looked into properties in the Katy area. The Marriott Westchase came up. Being we stay predominantly Marriott properties, this was a no brainer.
+Drive up, greeting and check in were flawless. Valet asked twice if I was going to need the car and he would keep it out if needed. That was nice.
+Check in was fast, professional and friendly. Hotel lobby is nice. Nice Atrium style property. 
+Checking in, the rooms were ready, clean and typical Marriott rooms. Except for, they were a bit small and the bedroom lamps were very old school (no 110v) which made it a bit frustrating. 
+The bar was OK, nothing great here. When asked for snacks I get a story about how they stopped serving "free" snacks because someone sued a hotel over choking over free snacks. At their prices and their location, they should have a bag of trash or nuts. If they can do it at the top properties across the nation, I'm sure they could do it there.
+I ordered the housemade potato chips. They were probably good a couple days before I got them. So then ordered the chips and salsa. Don't really want to rant here, but if you can't serve a bowl of chips and a decent salsa anywhere in the state of Texas, just don't. The prices were astronomical for the drinks there on a Friday...Having to fly into Katy for a weekend trip, we looked into properties in the Katy area. The Marriott Westchase came up. Being we stay predominantly Marriott properties, this was a no brainer.Drive up, greeting and check in were flawless. Valet asked twice if I was going to need the car and he would keep it out if needed. That was nice.Check in was fast, professional and friendly. Hotel lobby is nice. Nice Atrium style property. Checking in, the rooms were ready, clean and typical Marriott rooms. Except for, they were a bit small and the bedroom lamps were very old school (no 110v) which made it a bit frustrating. The bar was OK, nothing great here. When asked for snacks I get a story about how they stopped serving "free" snacks because someone sued a hotel over choking over free snacks. At their prices and their location, they should have a bag of trash or nuts. If they can do it at the top properties across the nation, I'm sure they could do it there.I ordered the housemade potato chips. They were probably good a couple days before I got them. So then ordered the chips and salsa. Don't really want to rant here, but if you can't serve a bowl of chips and a decent salsa anywhere in the state of Texas, just don't. The prices were astronomical for the drinks there on a Friday afternoon. Made me think I was at the Fountainbleu in Miami.Next morning was Breakfast downstairs. One of the better breakfasts I've eaten lately. Judy and Latoya need to be commended for their service and making not just me, but everyone they waited on; feel at home. Great job, great REAL LIVE bacon, not that razor thin stuff.Had room service a couple times, pretty good.Back to the room. Bed was a bit dated, mattress seemed a little old, not very supportive, but was ok. You get the feel that this Marriott is due for a nice upgrade soon. All in all it was a  good stay. The property needs work, but I'd stay there again just for the staff. They are actually that good and it shows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r228922277-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228922277</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Well located</t>
+  </si>
+  <si>
+    <t>I was in Houston for the week and this hotel located on Westheimer at the junction of Gessner Road was ideal. In front of it (1min walk), there was a supermarket Roger which was ideal for a refill of any drink you wish to add in your fridge and restaurant were also from a walking distance available. Not to say it was easy to drive for place I was planning to visit but I guess this count for me only !! Inside there was a StarBuck coffee where food was served for the breakfast (count around 15$ for a large cup and a plate full !!)Staff was friendly. There was a pool I have not tried but ideal if you have time.The inside (stair, lift, carpet corridor) looks old but the bedroom more than OK.Only downside was this door joint between room, Obviously they are close but it looks like you almost share the room. I could hear almost everything which I suppose was the same for them except I was alone and quiet !!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Houston for the week and this hotel located on Westheimer at the junction of Gessner Road was ideal. In front of it (1min walk), there was a supermarket Roger which was ideal for a refill of any drink you wish to add in your fridge and restaurant were also from a walking distance available. Not to say it was easy to drive for place I was planning to visit but I guess this count for me only !! Inside there was a StarBuck coffee where food was served for the breakfast (count around 15$ for a large cup and a plate full !!)Staff was friendly. There was a pool I have not tried but ideal if you have time.The inside (stair, lift, carpet corridor) looks old but the bedroom more than OK.Only downside was this door joint between room, Obviously they are close but it looks like you almost share the room. I could hear almost everything which I suppose was the same for them except I was alone and quiet !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r214111275-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214111275</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Another great stay at this hotel</t>
+  </si>
+  <si>
+    <t>This has become my hotel of choice in Houston.  Conveniently located, friendly attentative staff, clean rooms and property.  I have no complaints whatsoever.  This says a lot especially if you look at my other reviews, especially the Courtyard at Galleria in Houston which is a scant 4 miles away.  The difference is night and day.  The Westchase Courtyard is superb.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Laura A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>This has become my hotel of choice in Houston.  Conveniently located, friendly attentative staff, clean rooms and property.  I have no complaints whatsoever.  This says a lot especially if you look at my other reviews, especially the Courtyard at Galleria in Houston which is a scant 4 miles away.  The difference is night and day.  The Westchase Courtyard is superb.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r211898777-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211898777</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Consistent Courtyard</t>
+  </si>
+  <si>
+    <t>Rooms were typical Courtyard - mostly clean, large, very comfortable beds.  Convenient to West &amp; North West part of Houston.  Hallways were not air conditioned, causing it to be warm and a little musty smelling.  Found a hair roller and empty water bottle under the bed, causing us to think that rooms were not thoroughly cleaned (though rest of room &amp; bath were very clean).  Fenced in parking - didn't have to worry about our vehicle.  Towels were good &amp; hotel staff were very friendly and helpful.  Would recommend if your looking for a good place to stay for a few nights and not looking for anything out of the ordinary.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Eric R, Manager at Courtyard Houston Westchase, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Rooms were typical Courtyard - mostly clean, large, very comfortable beds.  Convenient to West &amp; North West part of Houston.  Hallways were not air conditioned, causing it to be warm and a little musty smelling.  Found a hair roller and empty water bottle under the bed, causing us to think that rooms were not thoroughly cleaned (though rest of room &amp; bath were very clean).  Fenced in parking - didn't have to worry about our vehicle.  Towels were good &amp; hotel staff were very friendly and helpful.  Would recommend if your looking for a good place to stay for a few nights and not looking for anything out of the ordinary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r198566801-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198566801</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Very good location</t>
+  </si>
+  <si>
+    <t>Typical Courtyard will meet your expectations. Location on Westheimer is very good - convenient to a lot of things in the area. Rooms are good size, clean, usual amenities. lots of parking available. Breakfast cafe/nightly bar service available. Staff was quite friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Laura A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Typical Courtyard will meet your expectations. Location on Westheimer is very good - convenient to a lot of things in the area. Rooms are good size, clean, usual amenities. lots of parking available. Breakfast cafe/nightly bar service available. Staff was quite friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r198203041-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198203041</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Typical updated Courtyard.  Consistant quality throughout facility.</t>
+  </si>
+  <si>
+    <t>Large courtyard hotel. All was modern, neat and tidy.  The location is a bit dry, and Houston crime is evident with the gated parking (and I've experienced a vehicle break in recent years in a Houston restaurant parking lot).  Otherwise within 10 min are many restaurant options and the tollway is close for you bidness commute.  I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eric R, Manager at Courtyard Houston Westchase, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Large courtyard hotel. All was modern, neat and tidy.  The location is a bit dry, and Houston crime is evident with the gated parking (and I've experienced a vehicle break in recent years in a Houston restaurant parking lot).  Otherwise within 10 min are many restaurant options and the tollway is close for you bidness commute.  I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r188737923-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188737923</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing hotel for the price! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've had to stay in hotels quite a bit recently because of work and this has to be the cleanest, nicest and friendliest hotel for the $60-$100(wih taxes) price range. From the moment you walk in, it shows the staff is on it. Very clean and well lit lobby. Highly recommend. </t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r187434802-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187434802</t>
+  </si>
+  <si>
+    <t>12/12/2013</t>
+  </si>
+  <si>
+    <t>Well located, convenient and cheap</t>
+  </si>
+  <si>
+    <t>Every time i go to Houston i stay at this hotel, i did it again now and i will certainly do it again in the future. Why?? Location is great, one block away from Westheimer Rd and you have immediate access to freeways and main roads in Houston, go to Galleria? drive straight, energy corridor? few blocks away. Staff is very keen and pro and cleanliness is always over the top, the Bistro is always good and breakfast is great. Perfect for anyone looking for reasonable lodging and good sleep quality. Prices are ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r186926376-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186926376</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>You come here for consistency.. and maybe save a buck or two!</t>
+  </si>
+  <si>
+    <t>This place is located near all the major highways.. can get to anywhere.. Nice loop around to the airport without getting caught in traffic. Its a bit further away from the city.. but easy to get in/ out from the hot spots and you'll save some bucks. Its clean, has what you'd expect from a courtyard. The configuration is a little strange with the gated parking lot. You can one of only ~20 spots out front.. but once their full you have to trek behind the fence. Overall a good spot.. near a supermarket if you need anything. Certainly less than the marriotts near the city.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r183163307-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183163307</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>Quiet and great food</t>
+  </si>
+  <si>
+    <t>Residence Inns can range from worn and ho-hum food to excellent. This one was very good and although near major roads, it was very quiet. The food however, was some of the best I've seen at a Residence Inn. The first night was build a burger with fries and the topper: Bryers ice cream!Breakfast was equally good with spiced up scrambled eggs as well as regular; bacon (one day) and everything else for a hearty breakfast. Only complaint was rates do fluctuate and when you get over $200, I have to move on. Good location in Houston and easy to get to (well, that's if you understand Houston freeways and service roads. Take a GPS.)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Residence Inns can range from worn and ho-hum food to excellent. This one was very good and although near major roads, it was very quiet. The food however, was some of the best I've seen at a Residence Inn. The first night was build a burger with fries and the topper: Bryers ice cream!Breakfast was equally good with spiced up scrambled eggs as well as regular; bacon (one day) and everything else for a hearty breakfast. Only complaint was rates do fluctuate and when you get over $200, I have to move on. Good location in Houston and easy to get to (well, that's if you understand Houston freeways and service roads. Take a GPS.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r181139525-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181139525</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>A wonderful calming stay while chaos reigned elsewhere</t>
+  </si>
+  <si>
+    <t>I spent 2 nights in this hotel, which was several miles from where I did business.  I must say that I am not an "easy sleeper".  I have chronic insomnia and severe reactions to "white noise" such as that which comes from HVAC units, road noise, elevators, and so on.  
+When I arrived I was 3 hours late from when I intended to arrive.  I was more than a bit frazzled.  The staff, especially Christine, was very helpful and calming.  She took special care to make sure I had a quiet room (which I had requested on the reservation), showed me the map and asked if I thought it would do. She even showed me where the roof-mounted HVAC units were relative to my room.... something that doesn't often happen.  She also let me know that if I had a problem, just to call down and they would be happy to make a switch.   
+As it happens, there was a small hissing noise from the vent which kept me awake (even with the thermostat turned off), but I am an extreme case. It was unavoidable and did not affect my opinion of the hotel or staff.
+I also purchased some food to take up to my room from the bar.  Again, kind and gracious service.  
+Everywhere I looked I was met with open, interested faces who seemed genuinely interested in ensuring that I had a great visit.  I will look...I spent 2 nights in this hotel, which was several miles from where I did business.  I must say that I am not an "easy sleeper".  I have chronic insomnia and severe reactions to "white noise" such as that which comes from HVAC units, road noise, elevators, and so on.  When I arrived I was 3 hours late from when I intended to arrive.  I was more than a bit frazzled.  The staff, especially Christine, was very helpful and calming.  She took special care to make sure I had a quiet room (which I had requested on the reservation), showed me the map and asked if I thought it would do. She even showed me where the roof-mounted HVAC units were relative to my room.... something that doesn't often happen.  She also let me know that if I had a problem, just to call down and they would be happy to make a switch.   As it happens, there was a small hissing noise from the vent which kept me awake (even with the thermostat turned off), but I am an extreme case. It was unavoidable and did not affect my opinion of the hotel or staff.I also purchased some food to take up to my room from the bar.  Again, kind and gracious service.  Everywhere I looked I was met with open, interested faces who seemed genuinely interested in ensuring that I had a great visit.  I will look forward to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent 2 nights in this hotel, which was several miles from where I did business.  I must say that I am not an "easy sleeper".  I have chronic insomnia and severe reactions to "white noise" such as that which comes from HVAC units, road noise, elevators, and so on.  
+When I arrived I was 3 hours late from when I intended to arrive.  I was more than a bit frazzled.  The staff, especially Christine, was very helpful and calming.  She took special care to make sure I had a quiet room (which I had requested on the reservation), showed me the map and asked if I thought it would do. She even showed me where the roof-mounted HVAC units were relative to my room.... something that doesn't often happen.  She also let me know that if I had a problem, just to call down and they would be happy to make a switch.   
+As it happens, there was a small hissing noise from the vent which kept me awake (even with the thermostat turned off), but I am an extreme case. It was unavoidable and did not affect my opinion of the hotel or staff.
+I also purchased some food to take up to my room from the bar.  Again, kind and gracious service.  
+Everywhere I looked I was met with open, interested faces who seemed genuinely interested in ensuring that I had a great visit.  I will look...I spent 2 nights in this hotel, which was several miles from where I did business.  I must say that I am not an "easy sleeper".  I have chronic insomnia and severe reactions to "white noise" such as that which comes from HVAC units, road noise, elevators, and so on.  When I arrived I was 3 hours late from when I intended to arrive.  I was more than a bit frazzled.  The staff, especially Christine, was very helpful and calming.  She took special care to make sure I had a quiet room (which I had requested on the reservation), showed me the map and asked if I thought it would do. She even showed me where the roof-mounted HVAC units were relative to my room.... something that doesn't often happen.  She also let me know that if I had a problem, just to call down and they would be happy to make a switch.   As it happens, there was a small hissing noise from the vent which kept me awake (even with the thermostat turned off), but I am an extreme case. It was unavoidable and did not affect my opinion of the hotel or staff.I also purchased some food to take up to my room from the bar.  Again, kind and gracious service.  Everywhere I looked I was met with open, interested faces who seemed genuinely interested in ensuring that I had a great visit.  I will look forward to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r179073056-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179073056</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>I recently stayed here for two weeks during a training and I felt like part of the family by the time I left. I was very satisfied with the staff, cleanliness and centralized location. It has a Kroger (grocery store) within 50 yards of the front door, and a huge selection of restaurants within walking distance. I agree with some of the others in regards to the loud AC, but it wasn't a deal breaker. For the price, it was go for me. Don't forget to get your rewards points.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Laura A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed here for two weeks during a training and I felt like part of the family by the time I left. I was very satisfied with the staff, cleanliness and centralized location. It has a Kroger (grocery store) within 50 yards of the front door, and a huge selection of restaurants within walking distance. I agree with some of the others in regards to the loud AC, but it wasn't a deal breaker. For the price, it was go for me. Don't forget to get your rewards points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r170511714-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170511714</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Overpriced and Overated for a Marriott</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights on business. The location is convenient and there are many restaurants near by one can wal to.  It is the same Marriott room, color scheme and layout and the room was fine. I had essentially no water pressure in the sink and shower.  I mentioned it to the front desk the first morning, was told they would look at it that day. Well I think that's all they did, look at it, as it was not if fixed.  My room rate of $249 was well above what this room was worth. As many pats note, the breakfast is an issue. Why Courtyard Marriott's continue to rip their clients off is beyond me. Their pricing also ridiculously high.  I was a Platinum member two years ago and am now Gold as I have had too many of these Marriott experiences to keep going back for more; or should I say less! Get your act together Marriott!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights on business. The location is convenient and there are many restaurants near by one can wal to.  It is the same Marriott room, color scheme and layout and the room was fine. I had essentially no water pressure in the sink and shower.  I mentioned it to the front desk the first morning, was told they would look at it that day. Well I think that's all they did, look at it, as it was not if fixed.  My room rate of $249 was well above what this room was worth. As many pats note, the breakfast is an issue. Why Courtyard Marriott's continue to rip their clients off is beyond me. Their pricing also ridiculously high.  I was a Platinum member two years ago and am now Gold as I have had too many of these Marriott experiences to keep going back for more; or should I say less! Get your act together Marriott!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r170235882-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170235882</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Monster AC and Bistro</t>
+  </si>
+  <si>
+    <t>This is the 2nd or 3 week I am staying at the place.  It is hot this time and the AC runs all night. The window AC is a monster machine...hard to sleep with that noise. In addition it is the same old issue with the bistro breakfast. You have to wait in line to get your food ( in opposite to the previous breakfasts with buffet ) or at least wait for 5- 10 minutes. The next issue is for complimentary breakfast with you rate or platinum status. Worst case scenario is that you order 6 USD "complimentary" and another 10 USD as "not complimentary" just because of your choices. For example regular coffee is included..cappuccino is not...water is included , certain juice is not. That goes along with the annoying and immature bistro concept. Why not just giving a let's say 12 USD breakfast voucher and you can order whatever you want. That was the value in the old Courtyard anyway ( pre-Bistro).. otherwise staff is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>This is the 2nd or 3 week I am staying at the place.  It is hot this time and the AC runs all night. The window AC is a monster machine...hard to sleep with that noise. In addition it is the same old issue with the bistro breakfast. You have to wait in line to get your food ( in opposite to the previous breakfasts with buffet ) or at least wait for 5- 10 minutes. The next issue is for complimentary breakfast with you rate or platinum status. Worst case scenario is that you order 6 USD "complimentary" and another 10 USD as "not complimentary" just because of your choices. For example regular coffee is included..cappuccino is not...water is included , certain juice is not. That goes along with the annoying and immature bistro concept. Why not just giving a let's say 12 USD breakfast voucher and you can order whatever you want. That was the value in the old Courtyard anyway ( pre-Bistro).. otherwise staff is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r169288760-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169288760</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Marriott can do better</t>
+  </si>
+  <si>
+    <t>Let me start by saying that overall the hotel is fine. Our room was clean and comfortable. Staff were all very nice.
+My complaint, and the only way to show a complaint is to downgrade the rating, is that Marriott is stingy, cheap, and deceptive. I assume it is Marriott, but maybe it is the management of this hotel. We booked our room and opted for paying a bit more to include breakfast. When we got to the breakfast area, we discovered that only some offerings were available to us--essentially a choice of breakfast sandwiches (these are not real breakfast foods), cereal, oatmeal. We could have coffee or juice, but not both. But, there was nothing on the website or in the room to indicate the limited options. I have more choices (and better quality) at much cheaper hotels. When I went back to get a refill on the coffee, the attendant asked if I wanted to charge that to my room. For pity sake, even the cheapest chains provide free coffee!!!! I walked away muttering something about "cheap policies." The young man then brought me a cup of coffee and said not to worry. Good for him--he understands what customer service is about.
+They need to be clear about what they are offering. We would not have chosen the higher rate if we knew that we could not get a breakfast that was at least equivalent to a Comfort...Let me start by saying that overall the hotel is fine. Our room was clean and comfortable. Staff were all very nice.My complaint, and the only way to show a complaint is to downgrade the rating, is that Marriott is stingy, cheap, and deceptive. I assume it is Marriott, but maybe it is the management of this hotel. We booked our room and opted for paying a bit more to include breakfast. When we got to the breakfast area, we discovered that only some offerings were available to us--essentially a choice of breakfast sandwiches (these are not real breakfast foods), cereal, oatmeal. We could have coffee or juice, but not both. But, there was nothing on the website or in the room to indicate the limited options. I have more choices (and better quality) at much cheaper hotels. When I went back to get a refill on the coffee, the attendant asked if I wanted to charge that to my room. For pity sake, even the cheapest chains provide free coffee!!!! I walked away muttering something about "cheap policies." The young man then brought me a cup of coffee and said not to worry. Good for him--he understands what customer service is about.They need to be clear about what they are offering. We would not have chosen the higher rate if we knew that we could not get a breakfast that was at least equivalent to a Comfort Inn, or other chain. I could have gone to the Kroger next to the hotel and purchased coffee and something to go with it for less than I paid for what the hotel offered, and I could have walked down the road and found a place that provide free coffee refills. Because of this miserly and deceptive policy, I would not stay here again and I am going to be a bit wary of other Courtyard hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start by saying that overall the hotel is fine. Our room was clean and comfortable. Staff were all very nice.
+My complaint, and the only way to show a complaint is to downgrade the rating, is that Marriott is stingy, cheap, and deceptive. I assume it is Marriott, but maybe it is the management of this hotel. We booked our room and opted for paying a bit more to include breakfast. When we got to the breakfast area, we discovered that only some offerings were available to us--essentially a choice of breakfast sandwiches (these are not real breakfast foods), cereal, oatmeal. We could have coffee or juice, but not both. But, there was nothing on the website or in the room to indicate the limited options. I have more choices (and better quality) at much cheaper hotels. When I went back to get a refill on the coffee, the attendant asked if I wanted to charge that to my room. For pity sake, even the cheapest chains provide free coffee!!!! I walked away muttering something about "cheap policies." The young man then brought me a cup of coffee and said not to worry. Good for him--he understands what customer service is about.
+They need to be clear about what they are offering. We would not have chosen the higher rate if we knew that we could not get a breakfast that was at least equivalent to a Comfort...Let me start by saying that overall the hotel is fine. Our room was clean and comfortable. Staff were all very nice.My complaint, and the only way to show a complaint is to downgrade the rating, is that Marriott is stingy, cheap, and deceptive. I assume it is Marriott, but maybe it is the management of this hotel. We booked our room and opted for paying a bit more to include breakfast. When we got to the breakfast area, we discovered that only some offerings were available to us--essentially a choice of breakfast sandwiches (these are not real breakfast foods), cereal, oatmeal. We could have coffee or juice, but not both. But, there was nothing on the website or in the room to indicate the limited options. I have more choices (and better quality) at much cheaper hotels. When I went back to get a refill on the coffee, the attendant asked if I wanted to charge that to my room. For pity sake, even the cheapest chains provide free coffee!!!! I walked away muttering something about "cheap policies." The young man then brought me a cup of coffee and said not to worry. Good for him--he understands what customer service is about.They need to be clear about what they are offering. We would not have chosen the higher rate if we knew that we could not get a breakfast that was at least equivalent to a Comfort Inn, or other chain. I could have gone to the Kroger next to the hotel and purchased coffee and something to go with it for less than I paid for what the hotel offered, and I could have walked down the road and found a place that provide free coffee refills. Because of this miserly and deceptive policy, I would not stay here again and I am going to be a bit wary of other Courtyard hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r166470486-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166470486</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Exactly What a Business Class Hotel Should Be</t>
+  </si>
+  <si>
+    <t>I travelled from Denver to Houston for a two video shoot and needed a place to stay near our shoot location. Our client recommend this hotel and it turned to be a good choice.My room had all the features necessary to conduct business while on the road and at the same time get a refreshing night's sleep. Plenty of storage options, fast WIFI, good work area, nice bathroom, soft towels and a comfortable bed are all hallmarks of a Marriott property.I must say the staff was very friendly. Special kudos to Harriett who checked us in at 3AM and the breakfast bar lady (didn't get her name), who got us a cup of coffee at 5:45AM, before the bar even opened, as we left for our shoot. We didn't have a chance to purchase any breakfast bar items but saw some folks eating items from the menu and they looked good. No comp breakfast though. Every hotel should have a computer and printer dedicated to printing board passes for guests. Nice touch; saved us a lot of time at the airport when our schedule got tight. Gated parking lot also gave us a little more security for our car.Marriott has got the formula right for their Courtyard properties. This one's a great place to stay when working in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I travelled from Denver to Houston for a two video shoot and needed a place to stay near our shoot location. Our client recommend this hotel and it turned to be a good choice.My room had all the features necessary to conduct business while on the road and at the same time get a refreshing night's sleep. Plenty of storage options, fast WIFI, good work area, nice bathroom, soft towels and a comfortable bed are all hallmarks of a Marriott property.I must say the staff was very friendly. Special kudos to Harriett who checked us in at 3AM and the breakfast bar lady (didn't get her name), who got us a cup of coffee at 5:45AM, before the bar even opened, as we left for our shoot. We didn't have a chance to purchase any breakfast bar items but saw some folks eating items from the menu and they looked good. No comp breakfast though. Every hotel should have a computer and printer dedicated to printing board passes for guests. Nice touch; saved us a lot of time at the airport when our schedule got tight. Gated parking lot also gave us a little more security for our car.Marriott has got the formula right for their Courtyard properties. This one's a great place to stay when working in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r162376261-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162376261</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Great Value for money!!!</t>
+  </si>
+  <si>
+    <t>This place is located just outside the 610 loop but still close to all major business establishments and just off Toll road TX 8 and off TX 59. Getting in and around is a breeze. Factor that in with a very  upgraded and airy restaurant, lobby and friendly front desk, it is a winner hands down. The area around may appear a bit 'sketchy; and there are signs all over the place to ensure that your cars are locked properly. The rooms are updated with paint, minor renovations, brand new lobby, business center etc. Btw, there is a swimming pool and a functional gym on premises. The rates are reasonable (Paid $119) and considering the proximity to downtown, this is a great place to stay. Also I believe they have a shuttle that can drop you in and around. I would give this a 31/2 of 5. TIP: Make sure to park your cars inside the gated area for safe keeeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This place is located just outside the 610 loop but still close to all major business establishments and just off Toll road TX 8 and off TX 59. Getting in and around is a breeze. Factor that in with a very  upgraded and airy restaurant, lobby and friendly front desk, it is a winner hands down. The area around may appear a bit 'sketchy; and there are signs all over the place to ensure that your cars are locked properly. The rooms are updated with paint, minor renovations, brand new lobby, business center etc. Btw, there is a swimming pool and a functional gym on premises. The rates are reasonable (Paid $119) and considering the proximity to downtown, this is a great place to stay. Also I believe they have a shuttle that can drop you in and around. I would give this a 31/2 of 5. TIP: Make sure to park your cars inside the gated area for safe keeeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r162228041-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162228041</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Stay Here!</t>
+  </si>
+  <si>
+    <t>Room was clean, quiet and I stayed during Memorial Day weekend. Lots of restaurants, grocery stores, mall, shopping. Nice area and staff was great. I stayed only one night so didn't get to check out everything the hotel had to offer, but I will stay again in a heartbeat. Warning hotel is quite some distance from Houston Hobby airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r159740889-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159740889</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Typical Courtyard</t>
+  </si>
+  <si>
+    <t>This is a typical Courtyard with a nice layout, convenient location, and friendly staff.  I received a room last minute that needed some maintenance.  Part of the exterior window casing was loose and flapped against the glass when the wind blew.  Since there were no other rooms available, the staff offered me a free breakfast to compensate for the minor inconvenience.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r156792317-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156792317</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>Proximity to Sam Houston</t>
+  </si>
+  <si>
+    <t>We stayed at this Marriott hoping to be closer to downtown but it was not really. We had to take the toll road, Sam Houston parkway, nearby often. That is one straight shot to the airport if you are ready to pay toll. That might be an easier way to avoid the busy Houston traffic. Hotel had a very nice lobby with plush furniture, great sunlight. Rooms were pretty clean. The fitness club was also big and nice in two sections. I had an airport ride arranged through the hotel. I was told it would be less than $50 only to pay $85 when I arrived at the Bush International airport!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this Marriott hoping to be closer to downtown but it was not really. We had to take the toll road, Sam Houston parkway, nearby often. That is one straight shot to the airport if you are ready to pay toll. That might be an easier way to avoid the busy Houston traffic. Hotel had a very nice lobby with plush furniture, great sunlight. Rooms were pretty clean. The fitness club was also big and nice in two sections. I had an airport ride arranged through the hotel. I was told it would be less than $50 only to pay $85 when I arrived at the Bush International airport!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r156068448-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156068448</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>Houston for a night</t>
+  </si>
+  <si>
+    <t>This hotel was clean, well taken care of in rooms and grounds.  Room was large with sofa, desk, coffee maker, and toiletries.  Bed was great.  Went to Irish pub for drinks, stayed hours listening to a great band, watching basketball, and enjoying appetizers.  It was about 4 miles to Galleria.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r154383883-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154383883</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Another great Marriott Property</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for a week while I was working in Houston. The initial room was dirty but the staff quickly resolved the issue and I was able to enjoy the new lobby as they did. The bar is great after a long day and the bartenders were always friendly and great to conversate with. The parking in the front was always packed which confused me because they had plenty of parking behind a locked gate the surrounded the hotel. I guess people didn't want to bother on having to pull their room cards out to open them. The beds were good and the noise level was extremely low. Thanks again to all the staff that make this property very well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for a week while I was working in Houston. The initial room was dirty but the staff quickly resolved the issue and I was able to enjoy the new lobby as they did. The bar is great after a long day and the bartenders were always friendly and great to conversate with. The parking in the front was always packed which confused me because they had plenty of parking behind a locked gate the surrounded the hotel. I guess people didn't want to bother on having to pull their room cards out to open them. The beds were good and the noise level was extremely low. Thanks again to all the staff that make this property very well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r153649019-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153649019</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Just ok, glad it was only 1 night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were wanting to stay near the memorial mall area, and this is not. It is about 10-20 minutes away depending on traffic. Decor was nice but pillows were horrible. Also found some dead spiders in the bathroom. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r153461144-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153461144</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Pleasant backup to Marriott Westchase Hotel</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by service after staying previously at Marriott Westchase Hotel down the road.  Bistro food and service was limited menu, but very good quality.  Staff was very friendly and helpful.  Secured (behind fence) parking was available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r150491941-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150491941</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>There are better options</t>
+  </si>
+  <si>
+    <t>I travel to Houston a few times and month and prefer the other Courtyards in the area and will only stay here if my other options are sold out.  In general it is a hassle to check in because parking is gated and your room key to get past the gate.  The location is near a number of restaurants but a 5-6 mile drive into the Galleria and to the 610 freeway which is also somewhat inconveinent.  WIth exception to my most recent stay the staff also falls short of expectations.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r149990936-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149990936</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Good hotel for business or leisure visits to Houston</t>
+  </si>
+  <si>
+    <t>I am a very frequent visitor to Houston, and always stay in this area of the city. There are lots of hotels and restaurants, and it is very easy to get around from here.We stayed for two nights in December 2012. We obtained good prices from Expedia, so chose this hotel over several others nearby.As a Marriott Gold Card holder, we expected to be upgraded, but were not. I'm not sure they have other than standard rooms.The hotel recommended a local cinema to us, as we wanted to see Skyfall, and a hotel driver took us there, and brought us back in the hotel minibus.Breakfast is a bit of a mess. The hotel needs to decide whether to do a buffet, or provide enough staff for the (current) counter service of buns, warmed snacks, and Starbucks coffees. One person just overwhelms the capacity to serve, wash up, and clear tables.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a very frequent visitor to Houston, and always stay in this area of the city. There are lots of hotels and restaurants, and it is very easy to get around from here.We stayed for two nights in December 2012. We obtained good prices from Expedia, so chose this hotel over several others nearby.As a Marriott Gold Card holder, we expected to be upgraded, but were not. I'm not sure they have other than standard rooms.The hotel recommended a local cinema to us, as we wanted to see Skyfall, and a hotel driver took us there, and brought us back in the hotel minibus.Breakfast is a bit of a mess. The hotel needs to decide whether to do a buffet, or provide enough staff for the (current) counter service of buns, warmed snacks, and Starbucks coffees. One person just overwhelms the capacity to serve, wash up, and clear tables.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r146377903-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146377903</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Thanksgivings Travel</t>
+  </si>
+  <si>
+    <t>This was our first time staying at this hotel ,we enjoyed the stay , We will stay here again From the front desk to the end of our stay everyone was so nice and friendly, Bed was comfortable rooms were so clean , will recomend others to this hotel...</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r137147444-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137147444</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r134563744-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134563744</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Nice location and comfortable hotel</t>
+  </si>
+  <si>
+    <t>I usually prefer Marriott properties, so this was my first choice for a business trip in the area. The hotel is nice. Beds was comfortable. Room was quiet. Service was excellent, with good dining recommendations. Breakfast is available (for cost) at a bistro in the lobby. It was pretty good. Nice business center and lounge area. I'd stay here again.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r132533961-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132533961</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>A little business gem!</t>
+  </si>
+  <si>
+    <t>Came here for 4 nights on business in the area. My husband usually stays at the nearby Comfort Suites but we were booked into the Courtyard by his client. He will stay at the Courtyard from now on!Most importantly, everyone was so friendly and accomodating. The GM is out in the lobby frequently greeting everyone and digging in to help whereever needed. Our room was clean and quiet and had all needed amenities, including free wi-fi. The lobby has free coffee/newspapers/tv/business center and comfortable seating to work. Although there is no complimentary breakfast, there is a cafe which serves much better tasting fair for breakfast and dinner - all reasonably priced and served with a smile. Great business gem! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Came here for 4 nights on business in the area. My husband usually stays at the nearby Comfort Suites but we were booked into the Courtyard by his client. He will stay at the Courtyard from now on!Most importantly, everyone was so friendly and accomodating. The GM is out in the lobby frequently greeting everyone and digging in to help whereever needed. Our room was clean and quiet and had all needed amenities, including free wi-fi. The lobby has free coffee/newspapers/tv/business center and comfortable seating to work. Although there is no complimentary breakfast, there is a cafe which serves much better tasting fair for breakfast and dinner - all reasonably priced and served with a smile. Great business gem! We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r126184448-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126184448</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Recently updated</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times during the past 5 years. It had been a couple years since my last visit and I was surprised to see how much they had updated the place. They have moved to more modern decor in the rooms and the lobby. As usual, my room was quiet and clean and I had no troubles with room temperature control.The main issue I have with the redesign is that they have moved to a Starbucks type breakfast service where you stand in a line and then order at the counter and pay. Then you have to wait for your food - sometimes a long wait if you are getting hot breakfast - like eggs. I truly prefer the buffet style breakfast that they had before because you get a large variety and it is immediately available with no wait. This is enough of a problem for me that I will look for other options next time I visit Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times during the past 5 years. It had been a couple years since my last visit and I was surprised to see how much they had updated the place. They have moved to more modern decor in the rooms and the lobby. As usual, my room was quiet and clean and I had no troubles with room temperature control.The main issue I have with the redesign is that they have moved to a Starbucks type breakfast service where you stand in a line and then order at the counter and pay. Then you have to wait for your food - sometimes a long wait if you are getting hot breakfast - like eggs. I truly prefer the buffet style breakfast that they had before because you get a large variety and it is immediately available with no wait. This is enough of a problem for me that I will look for other options next time I visit Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r118130006-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118130006</t>
+  </si>
+  <si>
+    <t>09/14/2011</t>
+  </si>
+  <si>
+    <t>Upgraded</t>
+  </si>
+  <si>
+    <t>Some of the previous reviews suggested the hotel was in seriuos ned of an upgrade. Looks like that has just happened; fresh paint, new carpets and furniture. The carpenters and painters were moving out when I checked in. Nice reception and restaurant area for a breakfast. Nice pool area too with a small fitness center in a separate building. Coffe and fridge in the room, and a large Kroger next door and several restaurants within walking distance. What more can you need. Recommended.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r111632974-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111632974</t>
+  </si>
+  <si>
+    <t>06/05/2011</t>
+  </si>
+  <si>
+    <t>Absolutely good value</t>
+  </si>
+  <si>
+    <t>Nothing fancy but absolutely fine and good value. The hotel has everything you need. Rooms quite big, clean and good beds. We have stayed in this hotel many times, always on the ground floor looking out into the garden. Not many people use the garden so if you want to relax it is perfect by the pool. The hotel is perfect for a short or longer stay. If you need a fridge in your room they will bring you one. They recently finished renovating the reception area and it turned out really nice. Parking no problem and good location. All staff in hotel very friendly.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r102859395-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102859395</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>A pleasant stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a week. Staff were always friendly and helpful. Free Internet, although this was a bit slow. Overall the facilities were great and the price reasonable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r99865435-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>99865435</t>
+  </si>
+  <si>
+    <t>03/12/2011</t>
+  </si>
+  <si>
+    <t>well located for biz...loved it...</t>
+  </si>
+  <si>
+    <t>I travel to Houston often for business and this spot was a pleasant surprise. Hot coffee waiting in the lobby every morning...great staff...and just about every amenity one could ask for. The rooms even have balconies for coffee and a quiet morning newspaper read...I will be back!</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r80650514-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>80650514</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>work in progress</t>
+  </si>
+  <si>
+    <t>The hotel is located just off the beltway, and near a shopping center with several dining options, including La Madeleine, Outback, Chili's, Starbucks, etc.  It's also just beside a Kroger grocery store.  The La Madeleine's now has online ordering, and you get 25% off for an online order--not bad! 
+It's undergoing a lobby renovation, which was noted when I booked as well as via email from the hotel manager a few days before my stay.  They did a good job of making this project clear to guests.  Because of the inconvenience, a free continental breakfast is being offered. 
+The lobby renovation means that the hotel is more or less split in two.  If you are fortunate to have a room on the same side as the temporary lobby, you will not be especially inconvenienced.  If you, like me, have a room on the opposite side of the hotel, you have to go completely outside and around the opposite side of the building to reach your room at the time of check in, as previously the lobby connected the two sides of the hotel and is now inaccessible due to renovation. 
+Upon entering the hotel, it smelled a little musty.  The hotel seems a little older than other Courtyards I've visited, and not so fresh.  The temperature control on the wall is pretty outdated, which further confirms my impression that the hotel is older.   
+I booked a King bed room, but...The hotel is located just off the beltway, and near a shopping center with several dining options, including La Madeleine, Outback, Chili's, Starbucks, etc.  It's also just beside a Kroger grocery store.  The La Madeleine's now has online ordering, and you get 25% off for an online order--not bad! It's undergoing a lobby renovation, which was noted when I booked as well as via email from the hotel manager a few days before my stay.  They did a good job of making this project clear to guests.  Because of the inconvenience, a free continental breakfast is being offered. The lobby renovation means that the hotel is more or less split in two.  If you are fortunate to have a room on the same side as the temporary lobby, you will not be especially inconvenienced.  If you, like me, have a room on the opposite side of the hotel, you have to go completely outside and around the opposite side of the building to reach your room at the time of check in, as previously the lobby connected the two sides of the hotel and is now inaccessible due to renovation. Upon entering the hotel, it smelled a little musty.  The hotel seems a little older than other Courtyards I've visited, and not so fresh.  The temperature control on the wall is pretty outdated, which further confirms my impression that the hotel is older.   I booked a King bed room, but upon arrival had a room with two full beds.  The fitness center will be unavailable beginning tomorrow and through the weekend for renovation.I am not impressed with this hotel as compared to other Courtyards and considering the price paid, would not recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>The hotel is located just off the beltway, and near a shopping center with several dining options, including La Madeleine, Outback, Chili's, Starbucks, etc.  It's also just beside a Kroger grocery store.  The La Madeleine's now has online ordering, and you get 25% off for an online order--not bad! 
+It's undergoing a lobby renovation, which was noted when I booked as well as via email from the hotel manager a few days before my stay.  They did a good job of making this project clear to guests.  Because of the inconvenience, a free continental breakfast is being offered. 
+The lobby renovation means that the hotel is more or less split in two.  If you are fortunate to have a room on the same side as the temporary lobby, you will not be especially inconvenienced.  If you, like me, have a room on the opposite side of the hotel, you have to go completely outside and around the opposite side of the building to reach your room at the time of check in, as previously the lobby connected the two sides of the hotel and is now inaccessible due to renovation. 
+Upon entering the hotel, it smelled a little musty.  The hotel seems a little older than other Courtyards I've visited, and not so fresh.  The temperature control on the wall is pretty outdated, which further confirms my impression that the hotel is older.   
+I booked a King bed room, but...The hotel is located just off the beltway, and near a shopping center with several dining options, including La Madeleine, Outback, Chili's, Starbucks, etc.  It's also just beside a Kroger grocery store.  The La Madeleine's now has online ordering, and you get 25% off for an online order--not bad! It's undergoing a lobby renovation, which was noted when I booked as well as via email from the hotel manager a few days before my stay.  They did a good job of making this project clear to guests.  Because of the inconvenience, a free continental breakfast is being offered. The lobby renovation means that the hotel is more or less split in two.  If you are fortunate to have a room on the same side as the temporary lobby, you will not be especially inconvenienced.  If you, like me, have a room on the opposite side of the hotel, you have to go completely outside and around the opposite side of the building to reach your room at the time of check in, as previously the lobby connected the two sides of the hotel and is now inaccessible due to renovation. Upon entering the hotel, it smelled a little musty.  The hotel seems a little older than other Courtyards I've visited, and not so fresh.  The temperature control on the wall is pretty outdated, which further confirms my impression that the hotel is older.   I booked a King bed room, but upon arrival had a room with two full beds.  The fitness center will be unavailable beginning tomorrow and through the weekend for renovation.I am not impressed with this hotel as compared to other Courtyards and considering the price paid, would not recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r62909857-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62909857</t>
+  </si>
+  <si>
+    <t>04/30/2010</t>
+  </si>
+  <si>
+    <t>Nothing fancy but absolutely fine and good value</t>
+  </si>
+  <si>
+    <t>Got a decent rate. Room small but absolutely fine and comfortable. Totally no frills but as a bed and nothing else for a couple of night it was perfectly acceptable.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r60290258-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60290258</t>
+  </si>
+  <si>
+    <t>04/03/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my best friend and my 11 year old daughter for a weekend of shopping. The room was very clean, location very close to shopping on Harwin, &amp; value we couldn't beat.  Best of all, the front desk clerk was very friendly and helpful with giving suggestions for shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r57463632-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57463632</t>
+  </si>
+  <si>
+    <t>03/01/2010</t>
+  </si>
+  <si>
+    <t>OK but nothing special</t>
+  </si>
+  <si>
+    <t>I had tried to book into the Marriott Westchase but there was no space available so I ended up staying at the Courtyard.On the down side he carpet and decor is dated and the rooms could do with a revamp. But on the plus side, as a single traveller I felt safe even when parking the car at night and it’s easy to get onto the main arterial roads.My main problem with the hotel was that I had no hot water in the shower for 4 days. I reported it each morning and each evening and each time someone was supposed to visit my room but it was only fixed after 4 days.I wouldn’t choose to stay there again, not because of the cold water, but just because it was a bit dreary.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I had tried to book into the Marriott Westchase but there was no space available so I ended up staying at the Courtyard.On the down side he carpet and decor is dated and the rooms could do with a revamp. But on the plus side, as a single traveller I felt safe even when parking the car at night and it’s easy to get onto the main arterial roads.My main problem with the hotel was that I had no hot water in the shower for 4 days. I reported it each morning and each evening and each time someone was supposed to visit my room but it was only fixed after 4 days.I wouldn’t choose to stay there again, not because of the cold water, but just because it was a bit dreary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r16858577-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16858577</t>
+  </si>
+  <si>
+    <t>06/11/2008</t>
+  </si>
+  <si>
+    <t>Awesome, if Hard to Find, Location</t>
+  </si>
+  <si>
+    <t>My boyfriend and I attended a conference in Houston for a few days in February and stayed at this hotel.  It is tucked away behind the Residence Inn (they never switched addresses) so it was difficult for taxi drivers to find it. I received an excellent deal thru Orbitz which helped make the experience next to perfect.   The Kroger grocery store was right outside the front door, we were in walking distance from a shopping center that had everything you would want to eat: sushi, french pastries, ice cream, Outback...seemed like a pretty classy business area.The room was huge and the cleaning ladies were superb.  There were really no drawbacks as far as hotel service goes.  All in all, it was a comfortable and slightly luxurious stay and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I attended a conference in Houston for a few days in February and stayed at this hotel.  It is tucked away behind the Residence Inn (they never switched addresses) so it was difficult for taxi drivers to find it. I received an excellent deal thru Orbitz which helped make the experience next to perfect.   The Kroger grocery store was right outside the front door, we were in walking distance from a shopping center that had everything you would want to eat: sushi, french pastries, ice cream, Outback...seemed like a pretty classy business area.The room was huge and the cleaning ladies were superb.  There were really no drawbacks as far as hotel service goes.  All in all, it was a comfortable and slightly luxurious stay and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r16671696-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16671696</t>
+  </si>
+  <si>
+    <t>06/04/2008</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel. Stylish and spacious room. Stayed here during New Year's with my husband. Got a room with a king sized bed and a pullout couch. Nice desk and free internet access. Nice bathroom with the best herbal shampoos and lotions. Has a lovely Courtyard, nice lobby and small restaurant. Not as fancy as the bigger Marriott in Westchase but still very nice. Friendly staff. Site is a little tucked away behind some shops so be sure to check a map first.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r13847328-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13847328</t>
+  </si>
+  <si>
+    <t>02/25/2008</t>
+  </si>
+  <si>
+    <t>Value business hotel with great staff</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel on a business trip and it was a very good experience for us. My husband had business for 3 days and my girls and I were the only non-business people staying there (at least that was our impression) and we were treated FANTASTIC.  Especially the staff that worked the breakfast buffets in the morning-they took care of us with such care and enthusiasm that we looked forward to seeing them each morning.  The front desk were very helpful with our day trip plans and we had the run of the pool and hot tub.  Both were kept very clean and had fresh towels ready.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel on a business trip and it was a very good experience for us. My husband had business for 3 days and my girls and I were the only non-business people staying there (at least that was our impression) and we were treated FANTASTIC.  Especially the staff that worked the breakfast buffets in the morning-they took care of us with such care and enthusiasm that we looked forward to seeing them each morning.  The front desk were very helpful with our day trip plans and we had the run of the pool and hot tub.  Both were kept very clean and had fresh towels ready.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r4109606-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4109606</t>
+  </si>
+  <si>
+    <t>11/12/2005</t>
+  </si>
+  <si>
+    <t>would not stay here again</t>
+  </si>
+  <si>
+    <t>We arrived with a school team. All arrangements had been made and confirmed prior to arriving. No room requests were honored. The front desk staff were friendly but really had a poor commond of basic hotel administration.Once we finally got into our rooms, we found all the AC knobs had been removed from the units so that the guest could not regulate the AC. The AC came on very infrequently throughout the night and was very uncomfortable.I will say that the AM breakfast was fresh and well prepared. The kitchen staff were very attentive to our younsters.</t>
+  </si>
+  <si>
+    <t>November 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r3397659-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3397659</t>
+  </si>
+  <si>
+    <t>04/21/2005</t>
+  </si>
+  <si>
+    <t>I love staying here, but reasonable rates very hard to get</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights of a week-long trip last month and loved it. My first room had mold issues due to condensation near the AC unit, but they moved me without any problem and the second room was perfect, courtyard view with windows that open so you can get a nice breeze. The computer in the lobby with free internet access 24/7 was also a big plus for me (being an insomniac), and the pool area is very nice. Staff also resolved a problem with my credit card very quickly as well, just cool folks overall. 
+I would have stayed my whole week there in March if they didn't almost DOUBLE the room rates from weekend to weekday. Now this is a great hotel for under $100, but for over $100...not so much really, just not that level of quality. I go to Houston once a month or so on business, but I can never get a good rate for this hotel on weekday, so my main complaint with them is that I can hardly ever stay there!
+One tip: If you do stay there, you can sometimes add on a day at the weekend rate if you book it through marriott reservations instead of the front desk. Example: After being told by the desk there was no way to book anything at less than $129 for a Sunday when I was already staying at the hotel, I...I stayed here for three nights of a week-long trip last month and loved it. My first room had mold issues due to condensation near the AC unit, but they moved me without any problem and the second room was perfect, courtyard view with windows that open so you can get a nice breeze. The computer in the lobby with free internet access 24/7 was also a big plus for me (being an insomniac), and the pool area is very nice. Staff also resolved a problem with my credit card very quickly as well, just cool folks overall. I would have stayed my whole week there in March if they didn't almost DOUBLE the room rates from weekend to weekday. Now this is a great hotel for under $100, but for over $100...not so much really, just not that level of quality. I go to Houston once a month or so on business, but I can never get a good rate for this hotel on weekday, so my main complaint with them is that I can hardly ever stay there!One tip: If you do stay there, you can sometimes add on a day at the weekend rate if you book it through marriott reservations instead of the front desk. Example: After being told by the desk there was no way to book anything at less than $129 for a Sunday when I was already staying at the hotel, I called marriott reservations from my room and was able to book the night for $69. The trick is to NOT tell reservations that you are already a guest at the hotel. I expect it works this way with a lot of chains, but of course your mileage may vary.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2005</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights of a week-long trip last month and loved it. My first room had mold issues due to condensation near the AC unit, but they moved me without any problem and the second room was perfect, courtyard view with windows that open so you can get a nice breeze. The computer in the lobby with free internet access 24/7 was also a big plus for me (being an insomniac), and the pool area is very nice. Staff also resolved a problem with my credit card very quickly as well, just cool folks overall. 
+I would have stayed my whole week there in March if they didn't almost DOUBLE the room rates from weekend to weekday. Now this is a great hotel for under $100, but for over $100...not so much really, just not that level of quality. I go to Houston once a month or so on business, but I can never get a good rate for this hotel on weekday, so my main complaint with them is that I can hardly ever stay there!
+One tip: If you do stay there, you can sometimes add on a day at the weekend rate if you book it through marriott reservations instead of the front desk. Example: After being told by the desk there was no way to book anything at less than $129 for a Sunday when I was already staying at the hotel, I...I stayed here for three nights of a week-long trip last month and loved it. My first room had mold issues due to condensation near the AC unit, but they moved me without any problem and the second room was perfect, courtyard view with windows that open so you can get a nice breeze. The computer in the lobby with free internet access 24/7 was also a big plus for me (being an insomniac), and the pool area is very nice. Staff also resolved a problem with my credit card very quickly as well, just cool folks overall. I would have stayed my whole week there in March if they didn't almost DOUBLE the room rates from weekend to weekday. Now this is a great hotel for under $100, but for over $100...not so much really, just not that level of quality. I go to Houston once a month or so on business, but I can never get a good rate for this hotel on weekday, so my main complaint with them is that I can hardly ever stay there!One tip: If you do stay there, you can sometimes add on a day at the weekend rate if you book it through marriott reservations instead of the front desk. Example: After being told by the desk there was no way to book anything at less than $129 for a Sunday when I was already staying at the hotel, I called marriott reservations from my room and was able to book the night for $69. The trick is to NOT tell reservations that you are already a guest at the hotel. I expect it works this way with a lot of chains, but of course your mileage may vary.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2204,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2236,4867 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>220</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>270</v>
+      </c>
+      <c r="X27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" t="s">
+        <v>276</v>
+      </c>
+      <c r="L28" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>279</v>
+      </c>
+      <c r="X28" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>287</v>
+      </c>
+      <c r="X29" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>291</v>
+      </c>
+      <c r="J30" t="s">
+        <v>292</v>
+      </c>
+      <c r="K30" t="s">
+        <v>293</v>
+      </c>
+      <c r="L30" t="s">
+        <v>294</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>295</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>296</v>
+      </c>
+      <c r="X30" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31" t="s">
+        <v>301</v>
+      </c>
+      <c r="K31" t="s">
+        <v>302</v>
+      </c>
+      <c r="L31" t="s">
+        <v>303</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>304</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>304</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>313</v>
+      </c>
+      <c r="J33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>304</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>324</v>
+      </c>
+      <c r="X34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>341</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>342</v>
+      </c>
+      <c r="X36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X37" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>354</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" t="s">
+        <v>357</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>358</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>360</v>
+      </c>
+      <c r="J39" t="s">
+        <v>361</v>
+      </c>
+      <c r="K39" t="s">
+        <v>362</v>
+      </c>
+      <c r="L39" t="s">
+        <v>363</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>375</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>384</v>
+      </c>
+      <c r="J43" t="s">
+        <v>385</v>
+      </c>
+      <c r="K43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>387</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>388</v>
+      </c>
+      <c r="X43" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>392</v>
+      </c>
+      <c r="J44" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" t="s">
+        <v>395</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>396</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>402</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>403</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>403</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>411</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>413</v>
+      </c>
+      <c r="K47" t="s">
+        <v>414</v>
+      </c>
+      <c r="L47" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>423</v>
+      </c>
+      <c r="O48" t="s">
+        <v>150</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" t="s">
+        <v>428</v>
+      </c>
+      <c r="L49" t="s">
+        <v>429</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
+        <v>150</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K50" t="s">
+        <v>433</v>
+      </c>
+      <c r="L50" t="s">
+        <v>434</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>435</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J51" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" t="s">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>441</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>444</v>
+      </c>
+      <c r="J52" t="s">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s">
+        <v>446</v>
+      </c>
+      <c r="L52" t="s">
+        <v>447</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>441</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>448</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J53" t="s">
+        <v>450</v>
+      </c>
+      <c r="K53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s">
+        <v>452</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>435</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>454</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>455</v>
+      </c>
+      <c r="J54" t="s">
+        <v>456</v>
+      </c>
+      <c r="K54" t="s">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" t="s">
+        <v>461</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>463</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>465</v>
+      </c>
+      <c r="J56" t="s">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s">
+        <v>467</v>
+      </c>
+      <c r="L56" t="s">
+        <v>468</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>469</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>470</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>471</v>
+      </c>
+      <c r="J57" t="s">
+        <v>472</v>
+      </c>
+      <c r="K57" t="s">
+        <v>473</v>
+      </c>
+      <c r="L57" t="s">
+        <v>474</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>476</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>477</v>
+      </c>
+      <c r="J58" t="s">
+        <v>478</v>
+      </c>
+      <c r="K58" t="s">
+        <v>479</v>
+      </c>
+      <c r="L58" t="s">
+        <v>480</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>481</v>
+      </c>
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>482</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>483</v>
+      </c>
+      <c r="J59" t="s">
+        <v>484</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>485</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>486</v>
+      </c>
+      <c r="O59" t="s">
+        <v>220</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>488</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>489</v>
+      </c>
+      <c r="J60" t="s">
+        <v>490</v>
+      </c>
+      <c r="K60" t="s">
+        <v>491</v>
+      </c>
+      <c r="L60" t="s">
+        <v>492</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" t="s">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>501</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" t="s">
+        <v>503</v>
+      </c>
+      <c r="K62" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" t="s">
+        <v>505</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>506</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>508</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>509</v>
+      </c>
+      <c r="J63" t="s">
+        <v>510</v>
+      </c>
+      <c r="K63" t="s">
+        <v>511</v>
+      </c>
+      <c r="L63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>513</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>515</v>
+      </c>
+      <c r="J64" t="s">
+        <v>516</v>
+      </c>
+      <c r="K64" t="s">
+        <v>517</v>
+      </c>
+      <c r="L64" t="s">
+        <v>518</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>519</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>521</v>
+      </c>
+      <c r="J65" t="s">
+        <v>522</v>
+      </c>
+      <c r="K65" t="s">
+        <v>523</v>
+      </c>
+      <c r="L65" t="s">
+        <v>524</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>526</v>
+      </c>
+      <c r="J66" t="s">
+        <v>527</v>
+      </c>
+      <c r="K66" t="s">
+        <v>528</v>
+      </c>
+      <c r="L66" t="s">
+        <v>529</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>530</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>531</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>532</v>
+      </c>
+      <c r="J67" t="s">
+        <v>533</v>
+      </c>
+      <c r="K67" t="s">
+        <v>534</v>
+      </c>
+      <c r="L67" t="s">
+        <v>535</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>536</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>538</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>539</v>
+      </c>
+      <c r="J68" t="s">
+        <v>540</v>
+      </c>
+      <c r="K68" t="s">
+        <v>541</v>
+      </c>
+      <c r="L68" t="s">
+        <v>542</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>543</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>544</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>545</v>
+      </c>
+      <c r="J69" t="s">
+        <v>546</v>
+      </c>
+      <c r="K69" t="s">
+        <v>547</v>
+      </c>
+      <c r="L69" t="s">
+        <v>548</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>543</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>549</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>550</v>
+      </c>
+      <c r="J70" t="s">
+        <v>551</v>
+      </c>
+      <c r="K70" t="s">
+        <v>552</v>
+      </c>
+      <c r="L70" t="s">
+        <v>553</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>554</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>556</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>557</v>
+      </c>
+      <c r="J71" t="s">
+        <v>558</v>
+      </c>
+      <c r="K71" t="s">
+        <v>559</v>
+      </c>
+      <c r="L71" t="s">
+        <v>560</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>562</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>563</v>
+      </c>
+      <c r="J72" t="s">
+        <v>564</v>
+      </c>
+      <c r="K72" t="s">
+        <v>565</v>
+      </c>
+      <c r="L72" t="s">
+        <v>566</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>567</v>
+      </c>
+      <c r="O72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>568</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>569</v>
+      </c>
+      <c r="J73" t="s">
+        <v>570</v>
+      </c>
+      <c r="K73" t="s">
+        <v>571</v>
+      </c>
+      <c r="L73" t="s">
+        <v>572</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>575</v>
+      </c>
+      <c r="J74" t="s">
+        <v>576</v>
+      </c>
+      <c r="K74" t="s">
+        <v>577</v>
+      </c>
+      <c r="L74" t="s">
+        <v>578</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>579</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>581</v>
+      </c>
+      <c r="J75" t="s">
+        <v>582</v>
+      </c>
+      <c r="K75" t="s">
+        <v>583</v>
+      </c>
+      <c r="L75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>585</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_159.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_159.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="915">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r589770477-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107924</t>
+  </si>
+  <si>
+    <t>589770477</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location</t>
+  </si>
+  <si>
+    <t>I had some major customer service issues here in the bistro.  Please note that it is a very limited bar with very limited skills on working in a bar.  This was addressed with the general manager and an offer made to recover guest satisfaction acceptable to both parties.  Great quiet hotel.  Love Ms. Bessie in the Bistro in the mornings.  She talks to you like we were old friends as does Ms. Beatrix on the desk who does the same.  Please note:  While the Marriott website on hotel website shows there are newspapers in the lobby, there is not.  Krogers is just a short walk across the parking lot for papers and other needs.  There is an adequate business center on property but the browser is very outdated and most websites will not function properly.  Many great restaurants in the area.  In the bistro do not miss the Banana Bread French Toast and the Bistro Burger.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>I had some major customer service issues here in the bistro.  Please note that it is a very limited bar with very limited skills on working in a bar.  This was addressed with the general manager and an offer made to recover guest satisfaction acceptable to both parties.  Great quiet hotel.  Love Ms. Bessie in the Bistro in the mornings.  She talks to you like we were old friends as does Ms. Beatrix on the desk who does the same.  Please note:  While the Marriott website on hotel website shows there are newspapers in the lobby, there is not.  Krogers is just a short walk across the parking lot for papers and other needs.  There is an adequate business center on property but the browser is very outdated and most websites will not function properly.  Many great restaurants in the area.  In the bistro do not miss the Banana Bread French Toast and the Bistro Burger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r583918013-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583918013</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Everybody here is friendly</t>
+  </si>
+  <si>
+    <t>At the front desk, Dani was great. The room that I would have liked was not available but I didn't even care. Dani was just so darned pleasant. Location here is great. Everything is close by. I appreciate the gated area all around hotel, for security. Everything in our wing of the hotel including my room was fresh and new. Recently remodeled. I always like that.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>At the front desk, Dani was great. The room that I would have liked was not available but I didn't even care. Dani was just so darned pleasant. Location here is great. Everything is close by. I appreciate the gated area all around hotel, for security. Everything in our wing of the hotel including my room was fresh and new. Recently remodeled. I always like that.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r576631441-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107924</t>
-  </si>
-  <si>
     <t>576631441</t>
   </si>
   <si>
@@ -207,9 +267,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 30, 2018</t>
   </si>
   <si>
@@ -246,6 +303,51 @@
     <t>I've stayed at the Courtyard Houston Westchase numerous times over the course of the past year due to easy access to our offices. The location is great, the newly remodeled rooms helped, but the best part continues to be their dedicated staff. From a professional check-in and welcome back to a cheerful morning greeting every day when one gets breakfast (honestly the best two ladies work at this location, and always make me feel welcome).Keep up the good work!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r560869585-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560869585</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while visiting friends in the area. We stayed in a renovated room. The room has a coffee maker, mini fridge, TV with option to login with your Netflix or Hulu account. The hotel was quiet, pleasant and in a great location, short drive from the Galleria and Memorial City Mall. There’s also a Kroger right next to it. Good nightly rate. Would stay here again and recommend to others. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while visiting friends in the area. We stayed in a renovated room. The room has a coffee maker, mini fridge, TV with option to login with your Netflix or Hulu account. The hotel was quiet, pleasant and in a great location, short drive from the Galleria and Memorial City Mall. There’s also a Kroger right next to it. Good nightly rate. Would stay here again and recommend to others. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r553216198-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553216198</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Nice stay - would lodge here again when in the area</t>
+  </si>
+  <si>
+    <t>Nice stay, several days.Would lodge here again when needing a place at a good location/reasonable price.They're in the process of remodeling so we're unsure when this will be finished. We were down at one end in an older room. We were not disturbed but there are signs of construction all over.By one of the back doors, people smoke and leave their butts everywhere. Not so good. :(Also, there is fenced parking with large signs warning about taking things with you and locking your doors. I guess it's because of the area. Unsure.We did not feel threatened, though I doubt we would walk to the nearby Kroger after dark. Restaurants in the area also.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Nice stay, several days.Would lodge here again when needing a place at a good location/reasonable price.They're in the process of remodeling so we're unsure when this will be finished. We were down at one end in an older room. We were not disturbed but there are signs of construction all over.By one of the back doors, people smoke and leave their butts everywhere. Not so good. :(Also, there is fenced parking with large signs warning about taking things with you and locking your doors. I guess it's because of the area. Unsure.We did not feel threatened, though I doubt we would walk to the nearby Kroger after dark. Restaurants in the area also.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r536986466-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -264,9 +366,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded October 31, 2017</t>
   </si>
   <si>
@@ -330,6 +429,57 @@
     <t>Jasmine and Muhammad at the front desk went out of their way to be helpful and were always cheerful. My room was cleaned by housekeeping everyday without being asked and the ladies at the breakfast counter were ready to make adjustments to the food on the menu to incorporate my allergies. The hotel provides a shuttle service that will take you anywhere within a distance of 3miles free of charge.That said, the hotel building seemed old, the rooms were small and mini fridge was empty. To buy anything you need to go down to a lil room next to the concierge that is stocked with sandwiches, candy and some small essential electronics.They do not keep or provide plug adapters, their sockets are essentially American and you need to walk maybe a km to a store named 'Sunrise' to find an adapter. The nearby kroger doesn't stock adapters.The in house restaurant menu is very limited and doesn't take into consideration food allergies.There are however a good number of restaurants around that provide gluten free food options. Download the Zomato app and filter for gluten free options. There are restaurants within walking distance and ones that deliver.The pool facing rooms have other rooms over looking them, but have a good bit of sunlight streaming in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r485175795-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485175795</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Lipstick on a pig</t>
+  </si>
+  <si>
+    <t>My company made the reservation at this hotel because it's close to the place where they do their training.At first glance when you walk in the lobby its nice..clearly that's where they invested most of the money.Once you walk to the elevator you can tell it needs more work and thorough cleaning.The carpet in the hall was dirty.The room had a mildew smell,the tub was so old that I initially thought it was dirty but the paint was chipped off.They also have pest control problems that need to be addressed.The ceiling was so thin I could hear my neighbor upstairs!The best thing they have going for them is the shuttle service and the bar.You can definitely see signs where they cut corners in the rooms compared to the lobby.Trust me you can find better for your money!MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>My company made the reservation at this hotel because it's close to the place where they do their training.At first glance when you walk in the lobby its nice..clearly that's where they invested most of the money.Once you walk to the elevator you can tell it needs more work and thorough cleaning.The carpet in the hall was dirty.The room had a mildew smell,the tub was so old that I initially thought it was dirty but the paint was chipped off.They also have pest control problems that need to be addressed.The ceiling was so thin I could hear my neighbor upstairs!The best thing they have going for them is the shuttle service and the bar.You can definitely see signs where they cut corners in the rooms compared to the lobby.Trust me you can find better for your money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r476648166-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476648166</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Easter Weekend Stay</t>
+  </si>
+  <si>
+    <t>We have stayed here several times due to convenience location and easy to commute near Hill-croft, Galleria, shopping and dining.  The room was very clean and supplied best clean towels and all other amenities.The furniture defiantly needs to replace and very small refrigerator like a cooler.No, Microwave in room. We prefer to have a microwave as most hotels provides in room.We were on second floor but Ice Machine was out of order. We stayed three days and it was not repaired. They had only one other Ice Machine on ground floor far away from our room. The Free WIFI was very slow and not good for YouTube or video on ipad.We were in &amp; out many time but hardly show staff at the front desk. Either they were smoking out or seating in bar. It's irony that today staff in USA do not obey rules of employment, and Job Description. This hotel chain name is great around the world but few bad apples can ruin it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Julie A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here several times due to convenience location and easy to commute near Hill-croft, Galleria, shopping and dining.  The room was very clean and supplied best clean towels and all other amenities.The furniture defiantly needs to replace and very small refrigerator like a cooler.No, Microwave in room. We prefer to have a microwave as most hotels provides in room.We were on second floor but Ice Machine was out of order. We stayed three days and it was not repaired. They had only one other Ice Machine on ground floor far away from our room. The Free WIFI was very slow and not good for YouTube or video on ipad.We were in &amp; out many time but hardly show staff at the front desk. Either they were smoking out or seating in bar. It's irony that today staff in USA do not obey rules of employment, and Job Description. This hotel chain name is great around the world but few bad apples can ruin it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r436535573-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -399,6 +549,54 @@
     <t>I am big on customer service... Christian was the best he was helpful professional and offered some great options. The room was kind of small but nice and clean! The courtyard was awesome and the hot tub was nice.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r403690611-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403690611</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great stay, great price!</t>
+  </si>
+  <si>
+    <t>The hotel is very nice, and the staff is friendly and helpful. There is a small market store or a Kroger grocery store right next door! The bed was a little firm, bUT I still slept well. The location of the hotel in Houston is a bit far from anything fun, which is why the rates are so cheap on the weekend. The hotel is usually used for business only. If you don't mind driving, this should be perfect!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r396575337-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396575337</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Overall nice and peaceful</t>
+  </si>
+  <si>
+    <t>My stay was one of the best I have had in Houston. I was very impressed with the front desk staff. They gave me great ideas on where to go and eat and where to go for fun. they were great with the directions. The rooms were cool and quiet. The beds was very comfortable and after a long day in the sun the pool was refreshing.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>My stay was one of the best I have had in Houston. I was very impressed with the front desk staff. They gave me great ideas on where to go and eat and where to go for fun. they were great with the directions. The rooms were cool and quiet. The beds was very comfortable and after a long day in the sun the pool was refreshing.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r388598620-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -480,6 +678,45 @@
     <t>I asked for a room close to an entrance down the hallway from room 101...was given key card to room 144...which was the complete opposite side of hotel.  Went back and got key card to room 119 and was told it was half-way down the hall from room 101...it is actually more 3/4 or 4/5 down the hall.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r373691541-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373691541</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Courtyard by Marriott  on Westhiemer Has an amazing host of personnel.  Everyone and I mean everyone from the district manager on down were very pleasant, welcoming and accommodating. We used their meeting room for a week and a half. The service was  great from day one.   Awesome staff.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r373152914-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373152914</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Only An Average Hotel</t>
+  </si>
+  <si>
+    <t>I stay at Marriott properties almost exclusively, and one of the things I like about them are the comfortable beds. Not at this hotel. Ours was hard and uncomfortable. The A/C unit is a wall type unit that is very loud and noisy and doesn't seem to regulate to the thermostat setting very well. Check in was not a good experience as I had to wait for the one desk clerk that was working to get off the phone before she could help me. The hotel is hidden back behind a Kroger shopping center and access to it is ok, but not the best. For these reasons, I rated it average. MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>I stay at Marriott properties almost exclusively, and one of the things I like about them are the comfortable beds. Not at this hotel. Ours was hard and uncomfortable. The A/C unit is a wall type unit that is very loud and noisy and doesn't seem to regulate to the thermostat setting very well. Check in was not a good experience as I had to wait for the one desk clerk that was working to get off the phone before she could help me. The hotel is hidden back behind a Kroger shopping center and access to it is ok, but not the best. For these reasons, I rated it average. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r360614520-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -558,6 +795,48 @@
     <t>The Courtyard Houston Westchase isn't the prettiest hotel you will ever stay at, but I would stay here again in a heartbeat simply for the service I received from the staff.Checkin was a breeze, and the staff was very courteous.  While the hotel is nice, it does show its age in some areas, but overall is very comfortable and accommodating.  I would like to see microwaves in all of the rooms and the A/C in our room needs an update, but I suppose they are updating as they go.We experienced an issue with the mini fridge in our room, it was leaking water on the inside and ruined some fresh chocolates we had purchased from the Russell Stover store in Corsicana, including a beautiful $4 chocolate covered strawberry.  We mentioned the issue while checking out, and the young man (I believe his name was Marco) at the front desk offered to speak to Expedia on our behalf and request that they refund us for 1 night of our stay due to the inconvenience.  He handled Expedia like a champ, and because of how we were taken care of, we will be sure to stay at the Courtyard every time we come to visit our family in Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r347776470-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347776470</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Nice and comfortable</t>
+  </si>
+  <si>
+    <t>We stay at Courtyard Marriotts  whenever visiting the US (from Australia) and find them consistently to be quality accommodation at a reasonable price, &amp; this one is no exception. Very good staff on the front desk, helpful in storing some luggage while we toured interstate. The only problem we encountered was (as Johnnie L. mentioned ) an appalling airconditioner in our room, extremely noisy, couldn't have it on for long, so room got too warm. These a/c units need to be replaced! Also, the wifi was not good, kept dropping out. Apart from the a/c, a great place to stay. Plenty of eating options nearby,  and kroger market opposite for breakfast supplies.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay at Courtyard Marriotts  whenever visiting the US (from Australia) and find them consistently to be quality accommodation at a reasonable price, &amp; this one is no exception. Very good staff on the front desk, helpful in storing some luggage while we toured interstate. The only problem we encountered was (as Johnnie L. mentioned ) an appalling airconditioner in our room, extremely noisy, couldn't have it on for long, so room got too warm. These a/c units need to be replaced! Also, the wifi was not good, kept dropping out. Apart from the a/c, a great place to stay. Plenty of eating options nearby,  and kroger market opposite for breakfast supplies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r344951128-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344951128</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Quality hotel</t>
+  </si>
+  <si>
+    <t>I practically live in hotels as I travel around the US for business, so I believe I am a good judge of quality. This hotel has gated parking which is free to those who stay the night, which is a nice touch ESP with being in a metropolitan area. The rooms are clean and being a part of their membership program I had the lights turned on in my room and a nice letter on my desk. Nice touch! The front desk was helpful and sincere which is always nice to experience when away from home.There was a bistro in the lobby but I did unfortunately not have the time to try it as I arrived late and left early. The only downside is this hotel was near impossible to find on google maps so I called and the lady at the front just told me to google maps the Kroger on westheimer bc they're right next to each other. Which worked like a charm. MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>I practically live in hotels as I travel around the US for business, so I believe I am a good judge of quality. This hotel has gated parking which is free to those who stay the night, which is a nice touch ESP with being in a metropolitan area. The rooms are clean and being a part of their membership program I had the lights turned on in my room and a nice letter on my desk. Nice touch! The front desk was helpful and sincere which is always nice to experience when away from home.There was a bistro in the lobby but I did unfortunately not have the time to try it as I arrived late and left early. The only downside is this hotel was near impossible to find on google maps so I called and the lady at the front just told me to google maps the Kroger on westheimer bc they're right next to each other. Which worked like a charm. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r334801313-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -636,6 +915,57 @@
     <t>Old HARD MATTRESSES!! Need I say more? Does it really matter how clean the room or how courteous the staff if you can't get a good nights sleep because the mattresses are so uncomfortable? Too bad because this hotel has a lot of other things going for it such as good location etc but if I continually wake up, this is my second night, because my hip and back hurt, well, put this on your DO NOT STAY list. Most recently I was in Raleigh on business and stayed at a two star Days Inn that had a much better mattress than here. When they say this hotel is recently renovated they obviously forgot to include the mattresses!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r314375991-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314375991</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>We stayed in room 315 on a Saturday night and loved it!  Comfy bed and pillows were awesome!  Very clean, bathroom nice, great toiletries (Thanks Marco at the front desk for being so helpful with the extras) I don't have any complaints about this hotel whatsoever!  (well,  just a small suggestion...offer Coke along with the Pepsi) but that's ok, Kroger is just across the street!  Breakfast sandwich was very good and filling and they had an array of juices to go with it.  Also a fruit cup was included with tasty, in-season fruit!  Another bonus:  the clock radio has some extra sounds to make you feel like you are near the ocean!   Will stay here again when going to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in room 315 on a Saturday night and loved it!  Comfy bed and pillows were awesome!  Very clean, bathroom nice, great toiletries (Thanks Marco at the front desk for being so helpful with the extras) I don't have any complaints about this hotel whatsoever!  (well,  just a small suggestion...offer Coke along with the Pepsi) but that's ok, Kroger is just across the street!  Breakfast sandwich was very good and filling and they had an array of juices to go with it.  Also a fruit cup was included with tasty, in-season fruit!  Another bonus:  the clock radio has some extra sounds to make you feel like you are near the ocean!   Will stay here again when going to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r309854589-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309854589</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>People and service is how to make a difference</t>
+  </si>
+  <si>
+    <t>The friendly, smiling can-do nature of all the staff at this hotel brings me back every time I am in Houston.The rooms are quiet and clean with everything you could need. Having power outlets right next to the bed on the night stand that also provides USB charging is so convenient but so rare in hotels costing 2 and 3 times as much.I thoroughly enjoy my stay here every single time without exception. well done to the entire team.MoreShow less</t>
+  </si>
+  <si>
+    <t>norma m, General Manager at Courtyard Houston Westchase, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>The friendly, smiling can-do nature of all the staff at this hotel brings me back every time I am in Houston.The rooms are quiet and clean with everything you could need. Having power outlets right next to the bed on the night stand that also provides USB charging is so convenient but so rare in hotels costing 2 and 3 times as much.I thoroughly enjoy my stay here every single time without exception. well done to the entire team.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r303698213-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -678,9 +1008,6 @@
     <t>This hotel is located right behind the Kroger on Westheimer in the Westchase Area of Houston.  Great location;  quiet.  We had a suite - wonderful room with plenty of space to stretch out and relax.  The staff is excellent.  Handle any question or whatever you need.  Beds are comfortable.  Good towels.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>This hotel is located right behind the Kroger on Westheimer in the Westchase Area of Houston.  Great location;  quiet.  We had a suite - wonderful room with plenty of space to stretch out and relax.  The staff is excellent.  Handle any question or whatever you need.  Beds are comfortable.  Good towels.More</t>
   </si>
   <si>
@@ -705,6 +1032,57 @@
     <t>I was really surprised with this hotel. The staff was professional &amp; the room was wonderful!  We loved it &amp; it was way better than we expected . The cafe &amp; food were excellent. Pool was ok . The area was safe . More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r287281222-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287281222</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>A pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I was having work done on my air conditioning and had to stay somewhere cool. This hotel was in my area so I booked it. I was skeptical because it was tucked behind a Krogers but I was pleasantly surprised!It was colorful, comfortable and clean. There were very nice sitting areas, a bar, work stations and the staff was very pleasant and accomodating. I will be expecting guests over the holidays and direct any overflow to this spot. I was pleasantly surprised.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>I was having work done on my air conditioning and had to stay somewhere cool. This hotel was in my area so I booked it. I was skeptical because it was tucked behind a Krogers but I was pleasantly surprised!It was colorful, comfortable and clean. There were very nice sitting areas, a bar, work stations and the staff was very pleasant and accomodating. I will be expecting guests over the holidays and direct any overflow to this spot. I was pleasantly surprised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r286796969-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286796969</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Loved it! Definitely coming back!</t>
+  </si>
+  <si>
+    <t>My experience arriving at this hotel was excellent from the night audit being first person into contact. His presentation was magnificent! Then Thelma at the bistro stand was remarkable on making me feel at home while i chose my breakfast selection. Then Will topped it off to ask me how my experience was and asked me to join him for breakfast and we had a great conversation!MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>My experience arriving at this hotel was excellent from the night audit being first person into contact. His presentation was magnificent! Then Thelma at the bistro stand was remarkable on making me feel at home while i chose my breakfast selection. Then Will topped it off to ask me how my experience was and asked me to join him for breakfast and we had a great conversation!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r284739394-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -723,12 +1101,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded July 9, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 9, 2015</t>
-  </si>
-  <si>
     <t>We couldn't have asked for a better experience.  Prior to the wedding we looked at several hotels in the area and while there were others that were fine, Courtyard's staff and their willingness to work with the needs of our group is what prompted us to choose them.  We were not disappointed.  From the moment (and even weeks before) they were helpful, friendly, and so courteous.  Many in our party had glowing reviews all weekend.  Harriet at the front desk was the best and always smiling.The rooms were very comfortable.  They have a small refrigerator in the regular room and a larger one in the suite. The modern lobby was nice size and accommodated our group after the wedding.  And while I didn't use the pool and hot tub, some in our group did and thoroughly enjoyed it.  There's wifi and business center if needed.  There's a grocery store right across the small parking lot and a gated parking lot that you can only access with a room key.  There are 2 malls and numerous restaurants just minutes away.  Courtyard helped to make our daughter's wedding weekend go off perfectly.More</t>
   </si>
   <si>
@@ -783,6 +1155,57 @@
     <t>Checked in 4/24-4/26  Nice hotel very friendly staff  my only compliant was  returning to a dirty room  5:00 P.M. It was an inconvenience to wait for a housekeeper but overall  I enjoyed my stay in HoustonMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r263212072-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263212072</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Clean, lots of restaurants, great staff!</t>
+  </si>
+  <si>
+    <t>Dennis and Nate were super awesome during our check in and while we worked in the lobby.  I got room 245, pretty quiet, I could hear the birds outside at 7 am.  LOTS of restaurants and grocery stores (to stock up on water, etc) nearby. Clean rooms.  Includes mouthwash with the soap/shampoo. Great for business trips.  Lots of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Dennis and Nate were super awesome during our check in and while we worked in the lobby.  I got room 245, pretty quiet, I could hear the birds outside at 7 am.  LOTS of restaurants and grocery stores (to stock up on water, etc) nearby. Clean rooms.  Includes mouthwash with the soap/shampoo. Great for business trips.  Lots of parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r257379142-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257379142</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>The staff made the stay</t>
+  </si>
+  <si>
+    <t>Dennis and the rest of the crew made this hotel worth the stay. Everything else about it is a traditional Courtyard property. I will say, if you want, need a quiet room make sure you choose a room on the inside or courtyard side.Dennis and his crew inspired me to go out and buy them some pastries to say thank you for the service. Then, Dennis took the gesture to a much higher level. He made sure the housing staff were given the first chance at the treats. I expected it to be shared with the desk staff. But Dennis told me, "They housing crew do everything for the guests behind the scenes. It is a good stay for the guest when they are not noticed." That was a keen insight that impressed me.A manager who gets it like that makes the hotel. Dennis and his crew will make you have a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Dennis and the rest of the crew made this hotel worth the stay. Everything else about it is a traditional Courtyard property. I will say, if you want, need a quiet room make sure you choose a room on the inside or courtyard side.Dennis and his crew inspired me to go out and buy them some pastries to say thank you for the service. Then, Dennis took the gesture to a much higher level. He made sure the housing staff were given the first chance at the treats. I expected it to be shared with the desk staff. But Dennis told me, "They housing crew do everything for the guests behind the scenes. It is a good stay for the guest when they are not noticed." That was a keen insight that impressed me.A manager who gets it like that makes the hotel. Dennis and his crew will make you have a great stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r257098244-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -825,9 +1248,6 @@
     <t>Room was clean except sticky tabletops.  Bed was comfortable.Quiet--could put fan on continuously though a/c does cycle.  Has sleep mode for refrigerator.Internet relatively slow.Minor design problem with small sink/countertop/handtowel rack.  Towel rack is full of clean towels and no place to put them away to be able to hang wet towels.Staff friendly.  Did have difficulty checking us in and out.  We had a separate reservation for an additional night we decided to add on and that caused confusion.Gated parking was fine.  Proximity of Kroger handy.  Traffic light onto Westheimer next to Kroger helpful.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>David M, General Manager at Courtyard Houston Westchase, responded to this reviewResponded February 25, 2015</t>
   </si>
   <si>
@@ -864,6 +1284,48 @@
     <t>Nice hotel. I have stayed at the residence inn next door a few times and this was the first time here. Rooms are spacious and comfortable, bathrooms are very spacious. The first floor even number rooms have sliding doors that open up to the pool / courtyard area. Business center computers are very fast. Starbucks available in the bistro. Very good front desk staff. Special thanks to Cody, Harriet and Stacy for making our stay enjoyable. I would strongly recommend this hotel, both for business and family trips. Well located.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r247013040-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247013040</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Good location - average place</t>
+  </si>
+  <si>
+    <t>I have stayed at this place several times (over some years) while in Houston for business. Service ok, rooms ok, breakfast ok, facilities ok - all average. Price is average For this district of Houston too. Location is great at Westheimer. Ok place to stay, however you could find nicer places in the same area with better value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this place several times (over some years) while in Houston for business. Service ok, rooms ok, breakfast ok, facilities ok - all average. Price is average For this district of Houston too. Location is great at Westheimer. Ok place to stay, however you could find nicer places in the same area with better value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r239268343-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239268343</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Just what you expected</t>
+  </si>
+  <si>
+    <t>A good destination when on a budget.  Hotel staff were very friendly and helpful.  Hotel is a bit tired but it is in a great location and pricing is reasonable.It is easy to miss coming in off Westhemier as it is set back a bit from the road.  This is not all bad however as it makes for a quieter hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>A good destination when on a budget.  Hotel staff were very friendly and helpful.  Hotel is a bit tired but it is in a great location and pricing is reasonable.It is easy to miss coming in off Westhemier as it is set back a bit from the road.  This is not all bad however as it makes for a quieter hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r238889244-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -903,9 +1365,6 @@
     <t>This is a subpar Marriott Courtyard located in the Westchase area of Houston. The hotel is situated back from the road, behind a Kroger grocery store. The parking lot is enclosed by a large metal gate, not the most welcoming of sites, but I suppose it does provide security for vehicles. The lobby is remodeled and modern and the front desk staff is very friendly and welcoming. Check in was fast and mobile check in worked well as my room was pre-assigned and ready to go. There was no acknowledgment of my Gold status. The room itself is average size. The bed is a standard Courtyard bed and comfortable. But that's where the positives end. The AC is an old-school wall/window unit. Loud doesn't begin to describe the way this thing operates. When I asked the front desk if it was normal or just a bad unit I was told it was normal. It was loud to the point where I turned it off so I could sleep and could still hear units in adjoining rooms. This simply isn't ok for a $200 a night hotel in the Marriott portfolio. The bathroom tile needs redone as it looks well worn, as well. The room was clean, which was good, but that should be a given.MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>Eric R, Manager at Courtyard Houston Westchase, responded to this reviewResponded November 5, 2014</t>
   </si>
   <si>
@@ -936,13 +1395,46 @@
     <t>I stayed at this hotel for 5 days on a business trip to the Houston area. I arrived on a Sunday and departed on a Friday. Upon arrival, I was greeted by Jason at the front desk. Jason was very welcoming and went above and beyond to ensure I felt 'at home' throughout my stay. I encountered many staff during my stay and all of them has a smile on their face and greeted me. My rooms was clean and spacious. I was on the first floor and had an exit from my room to the pool area. Although I did not use the pool, it was nice to have that access should I have decided to use it. I will stay here on future trips and recommend to anyone needing accommodations in the Westchase area to stay here. Thank you, Courtyard Westchase for a great visit.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r234631517-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234631517</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Great choice in Houston Westchase area</t>
+  </si>
+  <si>
+    <t>Spent a night here while on a business trip to Houston's Westchase area.  There are plenty of hotel options in this area and this is a great choice.  Very nice for a reasonable rate.  I arrived late from the airport (11:30) and the staff was ready with my room.  They were extremely accommodating and even comped me a couple of items from the pantry.  My room was clean and spacious - no issues.  I used the outdoor pool in the morning along with a great hot-tub spa that you don't see at most hotels - a nice bonus.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r230728896-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230728896</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel in a good locationFairly easy to find which was very good after a long flight and the delights of customs at the airport then the houston rush hour. Very freindly and helpfull staff.Good sized rooms nice pool areaSo overall a nice hotel in an ideal location to explore houston at a reasonable price. </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r230712474-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
     <t>230712474</t>
-  </si>
-  <si>
-    <t>09/24/2014</t>
   </si>
   <si>
     <t>Good for the West Side</t>
@@ -1009,6 +1501,48 @@
     <t>This has become my hotel of choice in Houston.  Conveniently located, friendly attentative staff, clean rooms and property.  I have no complaints whatsoever.  This says a lot especially if you look at my other reviews, especially the Courtyard at Galleria in Houston which is a scant 4 miles away.  The difference is night and day.  The Westchase Courtyard is superb.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r213827706-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213827706</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Found Hotel Tonight app good deal</t>
+  </si>
+  <si>
+    <t>I was in Dallas, TX area. My daughter and I were getting away for a couple of days to do some Houston shopping. Found this hotel at the Hotel Tonight app which we utilize often for same day deals and $25 dollars off with the invite code on 1st hotel stay : ASCOTT207 or CSCOTT19.  It had free WIFI, computer on site and coffee maker in room. The refrigerator is always a good extra because I like to bring along extra drinks and snacks that need refrigeration.We booked the room in parking lot of hotel at app right then, I like to use this app for great same day deals! Our reservation was at the front desk fax machine when we got to registration desk. Hotel had Bistro Bar and they did have Starbucks coffee even though I had coffee from coffee maker in hotel room. I even asked for extra coffee for coffee maker from maid, she was happy to give me more We had pleasant stay in comfy bed. I liked the ambiance of this hotel  It was quiet the day we stayed here. We had a good experience even though I had never stayed in this part of town before. I would definitely stay here again. I like the Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I was in Dallas, TX area. My daughter and I were getting away for a couple of days to do some Houston shopping. Found this hotel at the Hotel Tonight app which we utilize often for same day deals and $25 dollars off with the invite code on 1st hotel stay : ASCOTT207 or CSCOTT19.  It had free WIFI, computer on site and coffee maker in room. The refrigerator is always a good extra because I like to bring along extra drinks and snacks that need refrigeration.We booked the room in parking lot of hotel at app right then, I like to use this app for great same day deals! Our reservation was at the front desk fax machine when we got to registration desk. Hotel had Bistro Bar and they did have Starbucks coffee even though I had coffee from coffee maker in hotel room. I even asked for extra coffee for coffee maker from maid, she was happy to give me more We had pleasant stay in comfy bed. I liked the ambiance of this hotel  It was quiet the day we stayed here. We had a good experience even though I had never stayed in this part of town before. I would definitely stay here again. I like the Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r212608050-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212608050</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and Quiet - Leave Time for Breakfast</t>
+  </si>
+  <si>
+    <t>I would say this facility is up to typical Marriott standards.  The staff was quite friendly, and the room was in good condition with a great bed and shower.  It was very quiet when I was there, and I didn't hear a single noise from other rooms and very little from the hall.  This could have been due to low occupancy on my floor.  There was an issue with smoking on my floor the first few nights.  The entire building is supposed to be smoke free (as are all commercial buildings in Houston, I think), and some moron was clearly violating that rule.  I could smell smoke in the hallway and a little bit in my room for 3 nights.  I called the front desk, and they were very apologetic and promised to check it out, offering me a different room (not necessary).  I'm not sure what they could do other than going door-to-door, but it did seem better the next 2 nights.  Also, a towel bar was pulling away in the bathroom.  The housekeeping staff noticed  it before I had a chance to report it, and they offered me a new room while it was being repaired, which I didn't find necessary.  The only disappointment was the lack of free breakfast.  One sort of gets used to that being standard while on the road, but this hotel clearly caters toward business travelers.  This assumption burned me, because I planned...I would say this facility is up to typical Marriott standards.  The staff was quite friendly, and the room was in good condition with a great bed and shower.  It was very quiet when I was there, and I didn't hear a single noise from other rooms and very little from the hall.  This could have been due to low occupancy on my floor.  There was an issue with smoking on my floor the first few nights.  The entire building is supposed to be smoke free (as are all commercial buildings in Houston, I think), and some moron was clearly violating that rule.  I could smell smoke in the hallway and a little bit in my room for 3 nights.  I called the front desk, and they were very apologetic and promised to check it out, offering me a different room (not necessary).  I'm not sure what they could do other than going door-to-door, but it did seem better the next 2 nights.  Also, a towel bar was pulling away in the bathroom.  The housekeeping staff noticed  it before I had a chance to report it, and they offered me a new room while it was being repaired, which I didn't find necessary.  The only disappointment was the lack of free breakfast.  One sort of gets used to that being standard while on the road, but this hotel clearly caters toward business travelers.  This assumption burned me, because I planned on getting something quick out the door on my way out the first morning.  Instead, I found high prices at their full-service Bistro, which I wasn't in the mood for and didn't have time for.  I had a hard time finding a drive through with breakfast on Westheimer, so I was late to the office my first day.  That's what I get for assuming.   The security seems pretty good there, and the key card doors lock properly (not often the case these days).  The parking is gated, too.  I would advise travelers be cautious in the neighborhood surrounding this motel, especially if you decide to take a walk.  It looks upscale enough, but looks can be deceiving in Houston.  Well-kept lawns and attractive commercial buildings aren't synonymous with absence of crime.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I would say this facility is up to typical Marriott standards.  The staff was quite friendly, and the room was in good condition with a great bed and shower.  It was very quiet when I was there, and I didn't hear a single noise from other rooms and very little from the hall.  This could have been due to low occupancy on my floor.  There was an issue with smoking on my floor the first few nights.  The entire building is supposed to be smoke free (as are all commercial buildings in Houston, I think), and some moron was clearly violating that rule.  I could smell smoke in the hallway and a little bit in my room for 3 nights.  I called the front desk, and they were very apologetic and promised to check it out, offering me a different room (not necessary).  I'm not sure what they could do other than going door-to-door, but it did seem better the next 2 nights.  Also, a towel bar was pulling away in the bathroom.  The housekeeping staff noticed  it before I had a chance to report it, and they offered me a new room while it was being repaired, which I didn't find necessary.  The only disappointment was the lack of free breakfast.  One sort of gets used to that being standard while on the road, but this hotel clearly caters toward business travelers.  This assumption burned me, because I planned...I would say this facility is up to typical Marriott standards.  The staff was quite friendly, and the room was in good condition with a great bed and shower.  It was very quiet when I was there, and I didn't hear a single noise from other rooms and very little from the hall.  This could have been due to low occupancy on my floor.  There was an issue with smoking on my floor the first few nights.  The entire building is supposed to be smoke free (as are all commercial buildings in Houston, I think), and some moron was clearly violating that rule.  I could smell smoke in the hallway and a little bit in my room for 3 nights.  I called the front desk, and they were very apologetic and promised to check it out, offering me a different room (not necessary).  I'm not sure what they could do other than going door-to-door, but it did seem better the next 2 nights.  Also, a towel bar was pulling away in the bathroom.  The housekeeping staff noticed  it before I had a chance to report it, and they offered me a new room while it was being repaired, which I didn't find necessary.  The only disappointment was the lack of free breakfast.  One sort of gets used to that being standard while on the road, but this hotel clearly caters toward business travelers.  This assumption burned me, because I planned on getting something quick out the door on my way out the first morning.  Instead, I found high prices at their full-service Bistro, which I wasn't in the mood for and didn't have time for.  I had a hard time finding a drive through with breakfast on Westheimer, so I was late to the office my first day.  That's what I get for assuming.   The security seems pretty good there, and the key card doors lock properly (not often the case these days).  The parking is gated, too.  I would advise travelers be cautious in the neighborhood surrounding this motel, especially if you decide to take a walk.  It looks upscale enough, but looks can be deceiving in Houston.  Well-kept lawns and attractive commercial buildings aren't synonymous with absence of crime.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r211898777-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1024,9 +1558,6 @@
     <t>Rooms were typical Courtyard - mostly clean, large, very comfortable beds.  Convenient to West &amp; North West part of Houston.  Hallways were not air conditioned, causing it to be warm and a little musty smelling.  Found a hair roller and empty water bottle under the bed, causing us to think that rooms were not thoroughly cleaned (though rest of room &amp; bath were very clean).  Fenced in parking - didn't have to worry about our vehicle.  Towels were good &amp; hotel staff were very friendly and helpful.  Would recommend if your looking for a good place to stay for a few nights and not looking for anything out of the ordinary.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>Eric R, Manager at Courtyard Houston Westchase, responded to this reviewResponded June 27, 2014</t>
   </si>
   <si>
@@ -1051,9 +1582,6 @@
     <t>Typical Courtyard will meet your expectations. Location on Westheimer is very good - convenient to a lot of things in the area. Rooms are good size, clean, usual amenities. lots of parking available. Breakfast cafe/nightly bar service available. Staff was quite friendly and helpful.MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>Laura A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 27, 2014</t>
   </si>
   <si>
@@ -1087,6 +1615,55 @@
     <t>Large courtyard hotel. All was modern, neat and tidy.  The location is a bit dry, and Houston crime is evident with the gated parking (and I've experienced a vehicle break in recent years in a Houston restaurant parking lot).  Otherwise within 10 min are many restaurant options and the tollway is close for you bidness commute.  I'd stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r197786289-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197786289</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel and Outstanding Staff:  Thank you.</t>
+  </si>
+  <si>
+    <t>I can not say enough good things about this hotel as well as the front desk staff.  I had to stay here three days and two nights due to a condo which was rented out before I made it to Houston to sign the lease.  I was a wreck and I can not tell you how kind and helpful the staff at this hotel was in helping me as I had less than 24 hours to rent an apartment on a Sunday before returning home on Monday afternoon.  
+The hotel was clean, neat, and comforting during this time and I felt as if I was at a home away from home trying hard to find a place very quickly.  The breakfast was great and it was clear during my stay that quite a few business people lived here for extended trips.  I could understand why.  The internet service was quick and free and I had to look through hundreds of listings very quick as well as stay on top of my work email and requests while trying to deal with a housing issue.  
+As stated in other reviews, the hotel is close to everything, but the kindness and helpfulness of the staff was just amazing and the highlight of this stay.  I have stayed at and visited some of the top Marriott properties around the world from Europe to Asia, and the service provided by this great group of staff...I can not say enough good things about this hotel as well as the front desk staff.  I had to stay here three days and two nights due to a condo which was rented out before I made it to Houston to sign the lease.  I was a wreck and I can not tell you how kind and helpful the staff at this hotel was in helping me as I had less than 24 hours to rent an apartment on a Sunday before returning home on Monday afternoon.  The hotel was clean, neat, and comforting during this time and I felt as if I was at a home away from home trying hard to find a place very quickly.  The breakfast was great and it was clear during my stay that quite a few business people lived here for extended trips.  I could understand why.  The internet service was quick and free and I had to look through hundreds of listings very quick as well as stay on top of my work email and requests while trying to deal with a housing issue.  As stated in other reviews, the hotel is close to everything, but the kindness and helpfulness of the staff was just amazing and the highlight of this stay.  I have stayed at and visited some of the top Marriott properties around the world from Europe to Asia, and the service provided by this great group of staff was second to none, from the front desk to the staff who made a wonderful breakfast in the little café downstairs.  Thank you!  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Laura A, General Manager at Courtyard Houston Westchase, responded to this reviewResponded March 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2014</t>
+  </si>
+  <si>
+    <t>I can not say enough good things about this hotel as well as the front desk staff.  I had to stay here three days and two nights due to a condo which was rented out before I made it to Houston to sign the lease.  I was a wreck and I can not tell you how kind and helpful the staff at this hotel was in helping me as I had less than 24 hours to rent an apartment on a Sunday before returning home on Monday afternoon.  
+The hotel was clean, neat, and comforting during this time and I felt as if I was at a home away from home trying hard to find a place very quickly.  The breakfast was great and it was clear during my stay that quite a few business people lived here for extended trips.  I could understand why.  The internet service was quick and free and I had to look through hundreds of listings very quick as well as stay on top of my work email and requests while trying to deal with a housing issue.  
+As stated in other reviews, the hotel is close to everything, but the kindness and helpfulness of the staff was just amazing and the highlight of this stay.  I have stayed at and visited some of the top Marriott properties around the world from Europe to Asia, and the service provided by this great group of staff...I can not say enough good things about this hotel as well as the front desk staff.  I had to stay here three days and two nights due to a condo which was rented out before I made it to Houston to sign the lease.  I was a wreck and I can not tell you how kind and helpful the staff at this hotel was in helping me as I had less than 24 hours to rent an apartment on a Sunday before returning home on Monday afternoon.  The hotel was clean, neat, and comforting during this time and I felt as if I was at a home away from home trying hard to find a place very quickly.  The breakfast was great and it was clear during my stay that quite a few business people lived here for extended trips.  I could understand why.  The internet service was quick and free and I had to look through hundreds of listings very quick as well as stay on top of my work email and requests while trying to deal with a housing issue.  As stated in other reviews, the hotel is close to everything, but the kindness and helpfulness of the staff was just amazing and the highlight of this stay.  I have stayed at and visited some of the top Marriott properties around the world from Europe to Asia, and the service provided by this great group of staff was second to none, from the front desk to the staff who made a wonderful breakfast in the little café downstairs.  Thank you!  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r197498030-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197498030</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>This hotel should cost around $100-$120 / night… anything more, look elsewhere.  The staff were very friendly. The rooms were standard.  The air-conditioning / heating units are loud… even the newer models.  I found it difficult to sleep at the hotel. The fitness centre is very small.  The pool is also very small.  I did not use the pool itself because of weather and they were cleaning the pool when I did have the opportunity to use it.  Excellent location.  It is close to a lot of restaurants and shopping and major roads.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This hotel should cost around $100-$120 / night… anything more, look elsewhere.  The staff were very friendly. The rooms were standard.  The air-conditioning / heating units are loud… even the newer models.  I found it difficult to sleep at the hotel. The fitness centre is very small.  The pool is also very small.  I did not use the pool itself because of weather and they were cleaning the pool when I did have the opportunity to use it.  Excellent location.  It is close to a lot of restaurants and shopping and major roads.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r188737923-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1713,36 @@
   </si>
   <si>
     <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r185022486-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185022486</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>great hotel for last minute</t>
+  </si>
+  <si>
+    <t>very fresh hotel, very friendly staff, new look awesome. room very accommodating for this style hotel. They have earned by business in the future and stole it from Choice hotels . Great overall stay. No noise. clean room. refreshing bar and great staff</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r184930016-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184930016</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Marriott Courtyard</t>
+  </si>
+  <si>
+    <t>This was probably our 4th or 5th stay in this hotel. We think it is a good location if you plan on going into town and going to the Galleria. The price is very reasonable on weekends. This past visit we did had breakfast and was surprised it was good.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r183163307-Courtyard_Houston_Westchase-Houston_Texas.html</t>
@@ -1209,6 +1816,42 @@
     <t>I recently stayed here for two weeks during a training and I felt like part of the family by the time I left. I was very satisfied with the staff, cleanliness and centralized location. It has a Kroger (grocery store) within 50 yards of the front door, and a huge selection of restaurants within walking distance. I agree with some of the others in regards to the loud AC, but it wasn't a deal breaker. For the price, it was go for me. Don't forget to get your rewards points.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r177649583-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177649583</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Outstanding personal staff overall hotel</t>
+  </si>
+  <si>
+    <t>This staff is outstanding and very personable. They are attentive to your needs and welcome you by name upon walking through the door. Both the Assistant General Manager and the General Manager are involved with the staff as well a their guests. I had a small issue with my room and it was fix immediatly, followed up by a email from the GM. Location is also good for restaurant options within a couple miles. It is also a "walk across the street" from a Krogers so if you forgot something on your trip, or need anything from a large grocery store, its less than 1 minute away! I highly recommend for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>This staff is outstanding and very personable. They are attentive to your needs and welcome you by name upon walking through the door. Both the Assistant General Manager and the General Manager are involved with the staff as well a their guests. I had a small issue with my room and it was fix immediatly, followed up by a email from the GM. Location is also good for restaurant options within a couple miles. It is also a "walk across the street" from a Krogers so if you forgot something on your trip, or need anything from a large grocery store, its less than 1 minute away! I highly recommend for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r171180748-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171180748</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Not impressed.</t>
+  </si>
+  <si>
+    <t>While the hotel isn't awful, I had various minor problems that, in sum, lead to a disappointing experience. First, the air conditioner in the room was VERY loud. And it's August in Houston, so you have to have it on. My coworker said hers was loud too. Second, the fitness room was 94 degrees with no fans or any other type of ventilation. It probably would have been easier to exercise outside in the heat.Third, I thought the room was really small. The Residence Inn next door may be a better bet if you like more space too. And finally, the location is so strange. It's like behind a Kroger.  It did have some positive characteristics generally associated with this hotel class though. I liked the Paul Mitchell bath products, the decor was nice, and the Internet speed was adequate. The staff were also friendly. I just think I'll try another hotel next time I'm in Houston for business. MoreShow less</t>
+  </si>
+  <si>
+    <t>While the hotel isn't awful, I had various minor problems that, in sum, lead to a disappointing experience. First, the air conditioner in the room was VERY loud. And it's August in Houston, so you have to have it on. My coworker said hers was loud too. Second, the fitness room was 94 degrees with no fans or any other type of ventilation. It probably would have been easier to exercise outside in the heat.Third, I thought the room was really small. The Residence Inn next door may be a better bet if you like more space too. And finally, the location is so strange. It's like behind a Kroger.  It did have some positive characteristics generally associated with this hotel class though. I liked the Paul Mitchell bath products, the decor was nice, and the Internet speed was adequate. The staff were also friendly. I just think I'll try another hotel next time I'm in Houston for business. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r170511714-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1916,39 @@
 They need to be clear about what they are offering. We would not have chosen the higher rate if we knew that we could not get a breakfast that was at least equivalent to a Comfort...Let me start by saying that overall the hotel is fine. Our room was clean and comfortable. Staff were all very nice.My complaint, and the only way to show a complaint is to downgrade the rating, is that Marriott is stingy, cheap, and deceptive. I assume it is Marriott, but maybe it is the management of this hotel. We booked our room and opted for paying a bit more to include breakfast. When we got to the breakfast area, we discovered that only some offerings were available to us--essentially a choice of breakfast sandwiches (these are not real breakfast foods), cereal, oatmeal. We could have coffee or juice, but not both. But, there was nothing on the website or in the room to indicate the limited options. I have more choices (and better quality) at much cheaper hotels. When I went back to get a refill on the coffee, the attendant asked if I wanted to charge that to my room. For pity sake, even the cheapest chains provide free coffee!!!! I walked away muttering something about "cheap policies." The young man then brought me a cup of coffee and said not to worry. Good for him--he understands what customer service is about.They need to be clear about what they are offering. We would not have chosen the higher rate if we knew that we could not get a breakfast that was at least equivalent to a Comfort Inn, or other chain. I could have gone to the Kroger next to the hotel and purchased coffee and something to go with it for less than I paid for what the hotel offered, and I could have walked down the road and found a place that provide free coffee refills. Because of this miserly and deceptive policy, I would not stay here again and I am going to be a bit wary of other Courtyard hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r168751966-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168751966</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, great location, great staff</t>
+  </si>
+  <si>
+    <t>This is my hotel of choice in Houston.  Super location, friendly and accommodating staff, safe neighborhood.  Clean rooms, secure parking.  Reasonable rates.I am a very picky traveler and when I find a hotel I like, I am loyal.  This is my go-to hotel in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r166569976-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166569976</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Beautiful weekend</t>
+  </si>
+  <si>
+    <t>Was there for family weekend.  Far from airport, but rented a car so that wasn't a big issue.  Lots of shopping and restaurants nearby.  Beautiful open lobby and friendly staff.  Room was nice size and well appointed. NO complaints!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r166470486-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1288,9 +1964,6 @@
     <t>I travelled from Denver to Houston for a two video shoot and needed a place to stay near our shoot location. Our client recommend this hotel and it turned to be a good choice.My room had all the features necessary to conduct business while on the road and at the same time get a refreshing night's sleep. Plenty of storage options, fast WIFI, good work area, nice bathroom, soft towels and a comfortable bed are all hallmarks of a Marriott property.I must say the staff was very friendly. Special kudos to Harriett who checked us in at 3AM and the breakfast bar lady (didn't get her name), who got us a cup of coffee at 5:45AM, before the bar even opened, as we left for our shoot. We didn't have a chance to purchase any breakfast bar items but saw some folks eating items from the menu and they looked good. No comp breakfast though. Every hotel should have a computer and printer dedicated to printing board passes for guests. Nice touch; saved us a lot of time at the airport when our schedule got tight. Gated parking lot also gave us a little more security for our car.Marriott has got the formula right for their Courtyard properties. This one's a great place to stay when working in Houston.MoreShow less</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>I travelled from Denver to Houston for a two video shoot and needed a place to stay near our shoot location. Our client recommend this hotel and it turned to be a good choice.My room had all the features necessary to conduct business while on the road and at the same time get a refreshing night's sleep. Plenty of storage options, fast WIFI, good work area, nice bathroom, soft towels and a comfortable bed are all hallmarks of a Marriott property.I must say the staff was very friendly. Special kudos to Harriett who checked us in at 3AM and the breakfast bar lady (didn't get her name), who got us a cup of coffee at 5:45AM, before the bar even opened, as we left for our shoot. We didn't have a chance to purchase any breakfast bar items but saw some folks eating items from the menu and they looked good. No comp breakfast though. Every hotel should have a computer and printer dedicated to printing board passes for guests. Nice touch; saved us a lot of time at the airport when our schedule got tight. Gated parking lot also gave us a little more security for our car.Marriott has got the formula right for their Courtyard properties. This one's a great place to stay when working in Houston.More</t>
   </si>
   <si>
@@ -1330,6 +2003,42 @@
     <t>Room was clean, quiet and I stayed during Memorial Day weekend. Lots of restaurants, grocery stores, mall, shopping. Nice area and staff was great. I stayed only one night so didn't get to check out everything the hotel had to offer, but I will stay again in a heartbeat. Warning hotel is quite some distance from Houston Hobby airport.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r161752237-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161752237</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Great Location, Good Amenties</t>
+  </si>
+  <si>
+    <t>Located next to a Kroger supermarket, and back from the highway this is a good location for a traveling business person. It is very close to some regional training centers, and nice high rise office buildings. Close to the Galleria this hotel gives  you a nice price, with upgraded amenities and close enough to the upscale Galleria location that you will be a able to treat yourself during a business trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r160047785-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160047785</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel - great workout room, meeting room was just OK</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a training class which was also held at the hotel in one of the meeting rooms.  Our room was fine.  My only disappointment was that the bathroom sink area was so small - no counter space at all.  But the room was clean.  Staff was friendly.  I LOVED the workout room.  The treadmills and elliptical face a large window that looks out on the courtyard/pool.  They had some nice outdoor seating in the courtyard.  The meeting room where my class was held had some heating/cooling/noise issues - not ideal.  We are big coffee drinkers and were disappointed that there's no coffee in the lobby in the mornings.  So we were stuck brewing cup-after-cup with the tiny in-room brewer.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a training class which was also held at the hotel in one of the meeting rooms.  Our room was fine.  My only disappointment was that the bathroom sink area was so small - no counter space at all.  But the room was clean.  Staff was friendly.  I LOVED the workout room.  The treadmills and elliptical face a large window that looks out on the courtyard/pool.  They had some nice outdoor seating in the courtyard.  The meeting room where my class was held had some heating/cooling/noise issues - not ideal.  We are big coffee drinkers and were disappointed that there's no coffee in the lobby in the mornings.  So we were stuck brewing cup-after-cup with the tiny in-room brewer.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r159740889-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1384,6 +2093,36 @@
     <t>This hotel was clean, well taken care of in rooms and grounds.  Room was large with sofa, desk, coffee maker, and toiletries.  Bed was great.  Went to Irish pub for drinks, stayed hours listening to a great band, watching basketball, and enjoying appetizers.  It was about 4 miles to Galleria.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r155702988-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155702988</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Renovated Hotel, Friendly Staff</t>
+  </si>
+  <si>
+    <t>The hotel has been renovated to the new Courtyard look and feel. During our stay we had some issues with Breakfast service that were promptly resolved by management. Management was also very apologetic and worked very hard to make sure things were running properly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r154494609-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154494609</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Good enough ...</t>
+  </si>
+  <si>
+    <t>I stayed here March 9th&amp;10th, the room was good enough to rest in for a night after the fair and rodeo. But that's about it. You shouldn't try to do the cookie thing in the lobby if you aren't going to make them fresh or tend to the station. Bistro is cute dining, but can be a wait and costly for families . Make a more efficient dining and family friendly. Bed was great though!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r154383883-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1432,6 +2171,45 @@
     <t>Pleasantly surprised by service after staying previously at Marriott Westchase Hotel down the road.  Bistro food and service was limited menu, but very good quality.  Staff was very friendly and helpful.  Secured (behind fence) parking was available.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r152003680-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152003680</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>Good Execution of Courtyard Concept - Go Bistro !</t>
+  </si>
+  <si>
+    <t>Well, this one is like all the other Courtyard but completely "updated"..meaning - this is an older updated  property. Lobby looks great.. rooms look mostly good..the shower area still has some 80ties element ( "cultured marble" )..they actually have the upgraded amenities ( "usable shampoo" ).. bistro looks cool..except it comes with all the bistro downsides ( noisy equipment, helpless staff, long lines and wait during rush hours )...the courtyard bedding is always poor...looks nice but too much polyester...one day I will spray paint those green fake grass carpets in the bistro ( wasn't me )..but overall a good and reasonable place...location is all Houston , u don't like it , then don't travel to Houston..MoreShow less</t>
+  </si>
+  <si>
+    <t>Well, this one is like all the other Courtyard but completely "updated"..meaning - this is an older updated  property. Lobby looks great.. rooms look mostly good..the shower area still has some 80ties element ( "cultured marble" )..they actually have the upgraded amenities ( "usable shampoo" ).. bistro looks cool..except it comes with all the bistro downsides ( noisy equipment, helpless staff, long lines and wait during rush hours )...the courtyard bedding is always poor...looks nice but too much polyester...one day I will spray paint those green fake grass carpets in the bistro ( wasn't me )..but overall a good and reasonable place...location is all Houston , u don't like it , then don't travel to Houston..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r151501489-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151501489</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel!</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while we spent a little time in Houston.  It's near the Energy Corridor so it's in a pretty good decent location.  The area around the hotel was nice and there is a big Kroger's right next to the hotel which is helpful and convenient!  They have free parking right outside the hotel.  The hotel lobby was clean and modern.  You could tell that it's an older hotel but has gotten a remodel in their lobby and rooms.  The room was clean and the decor was modern and nice.  It was a comfortable clean room.  The service was great too.  I had to call down to get a shower cap and the lady at the front desk offered to come up and bring it to my room and she didn't even accept a tip!  Overall, I was impressed and happy with our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while we spent a little time in Houston.  It's near the Energy Corridor so it's in a pretty good decent location.  The area around the hotel was nice and there is a big Kroger's right next to the hotel which is helpful and convenient!  They have free parking right outside the hotel.  The hotel lobby was clean and modern.  You could tell that it's an older hotel but has gotten a remodel in their lobby and rooms.  The room was clean and the decor was modern and nice.  It was a comfortable clean room.  The service was great too.  I had to call down to get a shower cap and the lady at the front desk offered to come up and bring it to my room and she didn't even accept a tip!  Overall, I was impressed and happy with our stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r150491941-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1447,9 +2225,6 @@
     <t>I travel to Houston a few times and month and prefer the other Courtyards in the area and will only stay here if my other options are sold out.  In general it is a hassle to check in because parking is gated and your room key to get past the gate.  The location is near a number of restaurants but a 5-6 mile drive into the Galleria and to the 610 freeway which is also somewhat inconveinent.  WIth exception to my most recent stay the staff also falls short of expectations.</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r149990936-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1486,6 +2261,48 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r139213267-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139213267</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Good hotel also not too far from the Galleria</t>
+  </si>
+  <si>
+    <t>This was our first time at courtyard Marriott in Houston been to a few out of town but anyway we booked from Friday to Sunday Aug 31/Sept 2 we were running late for check-in wife notified staff and was told there would be a note by our name we got there 30mins before our suspected time and the staff was very friendly and welcoming check-in went smooth only problem was that we weren't notified till after my wife checked the account and brought it to the front desk staff attention that a $20 charge was added to our bill for anything added to our room which we never added anything to the but we were told it will be returned with 3-7 business which i will do a follow-up on that... the hotel bistro/restaurant was closed but the little hotel market they had was open and pretty much across the street was a Signature Kroger which was open pretty late(we arrived around 930pm) the hotel is located off Westheimer which has a ton of restaurants also about 10 miles headed north from the hotel is the galleria which is the biggest mall in Texas i believe also has 3 floors lots of walking and bring lots of money pretty expensive....the room was really nice liked the room decor really clean a/c was nice and icy too cold for wife just right for me only problem i had but not really...This was our first time at courtyard Marriott in Houston been to a few out of town but anyway we booked from Friday to Sunday Aug 31/Sept 2 we were running late for check-in wife notified staff and was told there would be a note by our name we got there 30mins before our suspected time and the staff was very friendly and welcoming check-in went smooth only problem was that we weren't notified till after my wife checked the account and brought it to the front desk staff attention that a $20 charge was added to our bill for anything added to our room which we never added anything to the but we were told it will be returned with 3-7 business which i will do a follow-up on that... the hotel bistro/restaurant was closed but the little hotel market they had was open and pretty much across the street was a Signature Kroger which was open pretty late(we arrived around 930pm) the hotel is located off Westheimer which has a ton of restaurants also about 10 miles headed north from the hotel is the galleria which is the biggest mall in Texas i believe also has 3 floors lots of walking and bring lots of money pretty expensive....the room was really nice liked the room decor really clean a/c was nice and icy too cold for wife just right for me only problem i had but not really since we didn't use it except to store some drinks was the mini fridge which was a little dirty besides all that bed made each day along with new clean towels and toiletries the gym was 24hrs not much to do except run cycle and some free weights wish there were more to do jacuzzi was nice didn't get in the pool but looked good room had  32 flat screen not much channels i believe like 20 or 25 but im not big on tv so not really a problem all the channels were in HD i believe the area wasn't too bad the roads are pretty bumpy with potholes we were asked if we wanted a room on a particular floor we chose the 2nd which the view was blocked by trees so i would advise a 3rd floor view but really since its a business type with only 3 floors what really can you view besides apartments restaurants stores etc Marriott residence was right next door and the opposite side was a Hilton and some restaurants the hotel is more of a business type also pretty family friendly overall me &amp; the wife had a great time would definitely recommend checking out to other also Robert at the front desk was real helpful we will also come back if were in townpros: great staff &amp; housekeeping clean room cons: no complimentary breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>This was our first time at courtyard Marriott in Houston been to a few out of town but anyway we booked from Friday to Sunday Aug 31/Sept 2 we were running late for check-in wife notified staff and was told there would be a note by our name we got there 30mins before our suspected time and the staff was very friendly and welcoming check-in went smooth only problem was that we weren't notified till after my wife checked the account and brought it to the front desk staff attention that a $20 charge was added to our bill for anything added to our room which we never added anything to the but we were told it will be returned with 3-7 business which i will do a follow-up on that... the hotel bistro/restaurant was closed but the little hotel market they had was open and pretty much across the street was a Signature Kroger which was open pretty late(we arrived around 930pm) the hotel is located off Westheimer which has a ton of restaurants also about 10 miles headed north from the hotel is the galleria which is the biggest mall in Texas i believe also has 3 floors lots of walking and bring lots of money pretty expensive....the room was really nice liked the room decor really clean a/c was nice and icy too cold for wife just right for me only problem i had but not really...This was our first time at courtyard Marriott in Houston been to a few out of town but anyway we booked from Friday to Sunday Aug 31/Sept 2 we were running late for check-in wife notified staff and was told there would be a note by our name we got there 30mins before our suspected time and the staff was very friendly and welcoming check-in went smooth only problem was that we weren't notified till after my wife checked the account and brought it to the front desk staff attention that a $20 charge was added to our bill for anything added to our room which we never added anything to the but we were told it will be returned with 3-7 business which i will do a follow-up on that... the hotel bistro/restaurant was closed but the little hotel market they had was open and pretty much across the street was a Signature Kroger which was open pretty late(we arrived around 930pm) the hotel is located off Westheimer which has a ton of restaurants also about 10 miles headed north from the hotel is the galleria which is the biggest mall in Texas i believe also has 3 floors lots of walking and bring lots of money pretty expensive....the room was really nice liked the room decor really clean a/c was nice and icy too cold for wife just right for me only problem i had but not really since we didn't use it except to store some drinks was the mini fridge which was a little dirty besides all that bed made each day along with new clean towels and toiletries the gym was 24hrs not much to do except run cycle and some free weights wish there were more to do jacuzzi was nice didn't get in the pool but looked good room had  32 flat screen not much channels i believe like 20 or 25 but im not big on tv so not really a problem all the channels were in HD i believe the area wasn't too bad the roads are pretty bumpy with potholes we were asked if we wanted a room on a particular floor we chose the 2nd which the view was blocked by trees so i would advise a 3rd floor view but really since its a business type with only 3 floors what really can you view besides apartments restaurants stores etc Marriott residence was right next door and the opposite side was a Hilton and some restaurants the hotel is more of a business type also pretty family friendly overall me &amp; the wife had a great time would definitely recommend checking out to other also Robert at the front desk was real helpful we will also come back if were in townpros: great staff &amp; housekeeping clean room cons: no complimentary breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r137768995-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137768995</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel, Friendly Staff</t>
+  </si>
+  <si>
+    <t>The hotel was great and I enjoyed the stay. I would have provided five stars if they had provided a complimentary breakfast as the food prices were a bit more than I would prefer to pay for a breakfast meal. The staff was always ready to greet me and make sure that my needs were being met.The only complaint I had about the whole experience was the elevator. It smelled horrible with obvious smells of hydraulic oil. The staff attempted to cover the smell, but it only made the smell worse. Thankfully, there are only three floors so it was not an issue to just climb the stairs instead of riding the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The hotel was great and I enjoyed the stay. I would have provided five stars if they had provided a complimentary breakfast as the food prices were a bit more than I would prefer to pay for a breakfast meal. The staff was always ready to greet me and make sure that my needs were being met.The only complaint I had about the whole experience was the elevator. It smelled horrible with obvious smells of hydraulic oil. The staff attempted to cover the smell, but it only made the smell worse. Thankfully, there are only three floors so it was not an issue to just climb the stairs instead of riding the elevator.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r137147444-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1498,9 +2315,6 @@
     <t>MoreShow less</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
@@ -1543,6 +2357,48 @@
     <t>Came here for 4 nights on business in the area. My husband usually stays at the nearby Comfort Suites but we were booked into the Courtyard by his client. He will stay at the Courtyard from now on!Most importantly, everyone was so friendly and accomodating. The GM is out in the lobby frequently greeting everyone and digging in to help whereever needed. Our room was clean and quiet and had all needed amenities, including free wi-fi. The lobby has free coffee/newspapers/tv/business center and comfortable seating to work. Although there is no complimentary breakfast, there is a cafe which serves much better tasting fair for breakfast and dinner - all reasonably priced and served with a smile. Great business gem! We will be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r130257689-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130257689</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent staff, Nice facility</t>
+  </si>
+  <si>
+    <t>stayed there for 3 nights on a business trip to Houston. There is another Marriott property nearby so I had a little confusion as I was travelling on a taxi from IAH. Rooms are nice and clean with good temp control. wifi was stable. All my requested extra things for my room was ready at my check-in. Also they agreed for a 2hr late check-out on the first day. There is a market place nearby with many restaurants and bar. One thing I must mention the hotel staff were very friendly and helpful. I am definitely going to come back to the same place during my next stay in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>stayed there for 3 nights on a business trip to Houston. There is another Marriott property nearby so I had a little confusion as I was travelling on a taxi from IAH. Rooms are nice and clean with good temp control. wifi was stable. All my requested extra things for my room was ready at my check-in. Also they agreed for a 2hr late check-out on the first day. There is a market place nearby with many restaurants and bar. One thing I must mention the hotel staff were very friendly and helpful. I am definitely going to come back to the same place during my next stay in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r128220944-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128220944</t>
+  </si>
+  <si>
+    <t>04/20/2012</t>
+  </si>
+  <si>
+    <t>Rubbish new breakfast</t>
+  </si>
+  <si>
+    <t>What on earth are marriott playing at with the new 'grab and go' breakfast concept?on business I like a breakfast that is fresh, good for me and sufficient for me to work all day without lunch. So, a cooked, low carb meal with fresh fruit and coffee and I am ready to go.Enter some clown in Marriott (who I use by choice and normally really like) who decides to change the whole 'breakfast experience' and that allows you to only order some stodgy cake or a badly cooked egg or a cup of composted genetically modified mush that passes off as fruit.absolutely terrible. change it guys or I move my business hotel of choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>What on earth are marriott playing at with the new 'grab and go' breakfast concept?on business I like a breakfast that is fresh, good for me and sufficient for me to work all day without lunch. So, a cooked, low carb meal with fresh fruit and coffee and I am ready to go.Enter some clown in Marriott (who I use by choice and normally really like) who decides to change the whole 'breakfast experience' and that allows you to only order some stodgy cake or a badly cooked egg or a cup of composted genetically modified mush that passes off as fruit.absolutely terrible. change it guys or I move my business hotel of choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r126184448-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1598,6 +2454,36 @@
   </si>
   <si>
     <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r111622912-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111622912</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Accommodating, friendly, warm.  The front desk employee was always attentive and welcoming.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r110863510-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>110863510</t>
+  </si>
+  <si>
+    <t>05/31/2011</t>
+  </si>
+  <si>
+    <t>THEFT AND VANDALISM - BAD SURRONDING</t>
+  </si>
+  <si>
+    <t>This is 2nd time is happening to me at this hotel. I had my qx56 SUV broken into trying to find anything inside. The back area of the hotel is apartment complex old fashion wood fenced. I was told mostly housing people live there and ive noticed teens and adult males jumping through the fence going to the kroger. I was also told that many incident happened there especially breaking into SUV's. I have told the management about putting security or Tall wall fence, but they care less. So if you are in courtyard by marriot, Residence inn etc in this area close to kroger be careful. stn4774@yahoo.com</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r102859395-Courtyard_Houston_Westchase-Houston_Texas.html</t>
@@ -1662,6 +2548,50 @@
 I booked a King bed room, but...The hotel is located just off the beltway, and near a shopping center with several dining options, including La Madeleine, Outback, Chili's, Starbucks, etc.  It's also just beside a Kroger grocery store.  The La Madeleine's now has online ordering, and you get 25% off for an online order--not bad! It's undergoing a lobby renovation, which was noted when I booked as well as via email from the hotel manager a few days before my stay.  They did a good job of making this project clear to guests.  Because of the inconvenience, a free continental breakfast is being offered. The lobby renovation means that the hotel is more or less split in two.  If you are fortunate to have a room on the same side as the temporary lobby, you will not be especially inconvenienced.  If you, like me, have a room on the opposite side of the hotel, you have to go completely outside and around the opposite side of the building to reach your room at the time of check in, as previously the lobby connected the two sides of the hotel and is now inaccessible due to renovation. Upon entering the hotel, it smelled a little musty.  The hotel seems a little older than other Courtyards I've visited, and not so fresh.  The temperature control on the wall is pretty outdated, which further confirms my impression that the hotel is older.   I booked a King bed room, but upon arrival had a room with two full beds.  The fitness center will be unavailable beginning tomorrow and through the weekend for renovation.I am not impressed with this hotel as compared to other Courtyards and considering the price paid, would not recommend it to others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r79551516-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>79551516</t>
+  </si>
+  <si>
+    <t>09/14/2010</t>
+  </si>
+  <si>
+    <t>superb customer service-will return again</t>
+  </si>
+  <si>
+    <t>Organizers of a reunion brought us to Houston and this hotel since it is a quarter mile from our friends who hosted most of the activities. we booked at a good rate with our AAA card so when we received an email advising us that the lobby was under renovation construction we were pleased to get notice of a complimentary breakfast buffet along with it. their email of apology was so well done that i was immediately convinced that they must take their customer service seriously. i was right.
+the staff is so attentive: phil, stephanie, lily, kitchen staff, housekeepers and others were very conscientious. they would inquire about our stay, was there anything they could do, printed directions, gave recommendations for eateries and shopping. they really care about every aspect of your stay.
+great location to access just about anywhere you want to go in houston with major highways just seconds from hotel. right next door there is a large kroger's supermarket with pharmacy , bakery, deli and just about anything you might be looking for. yet, you would never know the place is there because it is so quiet. the kroger gass station was great as we were able to gas up before heading to the airport.
+this hotel is super clean, and secure with a nice courtyard with pool and barbeque area.
+the only downside is that the walls are thin, however, a phone call to the...Organizers of a reunion brought us to Houston and this hotel since it is a quarter mile from our friends who hosted most of the activities. we booked at a good rate with our AAA card so when we received an email advising us that the lobby was under renovation construction we were pleased to get notice of a complimentary breakfast buffet along with it. their email of apology was so well done that i was immediately convinced that they must take their customer service seriously. i was right.the staff is so attentive: phil, stephanie, lily, kitchen staff, housekeepers and others were very conscientious. they would inquire about our stay, was there anything they could do, printed directions, gave recommendations for eateries and shopping. they really care about every aspect of your stay.great location to access just about anywhere you want to go in houston with major highways just seconds from hotel. right next door there is a large kroger's supermarket with pharmacy , bakery, deli and just about anything you might be looking for. yet, you would never know the place is there because it is so quiet. the kroger gass station was great as we were able to gas up before heading to the airport.this hotel is super clean, and secure with a nice courtyard with pool and barbeque area.the only downside is that the walls are thin, however, a phone call to the front desk resulted in immediate remediation of a loud tv. the room we got was very small but adequate for 4 nights, any more than that and the size would have gotten to me.i came away impressed with this place mainly due to the attention you get from the staff from the manager on down. we will definitely use this courtyard marriott when in houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Organizers of a reunion brought us to Houston and this hotel since it is a quarter mile from our friends who hosted most of the activities. we booked at a good rate with our AAA card so when we received an email advising us that the lobby was under renovation construction we were pleased to get notice of a complimentary breakfast buffet along with it. their email of apology was so well done that i was immediately convinced that they must take their customer service seriously. i was right.
+the staff is so attentive: phil, stephanie, lily, kitchen staff, housekeepers and others were very conscientious. they would inquire about our stay, was there anything they could do, printed directions, gave recommendations for eateries and shopping. they really care about every aspect of your stay.
+great location to access just about anywhere you want to go in houston with major highways just seconds from hotel. right next door there is a large kroger's supermarket with pharmacy , bakery, deli and just about anything you might be looking for. yet, you would never know the place is there because it is so quiet. the kroger gass station was great as we were able to gas up before heading to the airport.
+this hotel is super clean, and secure with a nice courtyard with pool and barbeque area.
+the only downside is that the walls are thin, however, a phone call to the...Organizers of a reunion brought us to Houston and this hotel since it is a quarter mile from our friends who hosted most of the activities. we booked at a good rate with our AAA card so when we received an email advising us that the lobby was under renovation construction we were pleased to get notice of a complimentary breakfast buffet along with it. their email of apology was so well done that i was immediately convinced that they must take their customer service seriously. i was right.the staff is so attentive: phil, stephanie, lily, kitchen staff, housekeepers and others were very conscientious. they would inquire about our stay, was there anything they could do, printed directions, gave recommendations for eateries and shopping. they really care about every aspect of your stay.great location to access just about anywhere you want to go in houston with major highways just seconds from hotel. right next door there is a large kroger's supermarket with pharmacy , bakery, deli and just about anything you might be looking for. yet, you would never know the place is there because it is so quiet. the kroger gass station was great as we were able to gas up before heading to the airport.this hotel is super clean, and secure with a nice courtyard with pool and barbeque area.the only downside is that the walls are thin, however, a phone call to the front desk resulted in immediate remediation of a loud tv. the room we got was very small but adequate for 4 nights, any more than that and the size would have gotten to me.i came away impressed with this place mainly due to the attention you get from the staff from the manager on down. we will definitely use this courtyard marriott when in houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r68688251-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>68688251</t>
+  </si>
+  <si>
+    <t>06/25/2010</t>
+  </si>
+  <si>
+    <t>It was just fine</t>
+  </si>
+  <si>
+    <t>My wife and I checked in early - I had called ahead and sure enough, they had a room ready.The only complaint I have about this place is that the walls are a little thin.  However, that didn't disturb our sleep.The free "wired" internet is fast enough, but if you use the in room wi fi, you'll find it a LOT faster.They have some pretty interesting "coffee table" books out in the lobby and lounge area..nice pictures to look at and thoughtful of them.The bed is comfortable, hotel is well located, and although they haven't had the "new" lobby yet, I do recommend the hotel,.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r62909857-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +2646,39 @@
     <t>I had tried to book into the Marriott Westchase but there was no space available so I ended up staying at the Courtyard.On the down side he carpet and decor is dated and the rooms could do with a revamp. But on the plus side, as a single traveller I felt safe even when parking the car at night and it’s easy to get onto the main arterial roads.My main problem with the hotel was that I had no hot water in the shower for 4 days. I reported it each morning and each evening and each time someone was supposed to visit my room but it was only fixed after 4 days.I wouldn’t choose to stay there again, not because of the cold water, but just because it was a bit dreary.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r26963416-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26963416</t>
+  </si>
+  <si>
+    <t>03/28/2009</t>
+  </si>
+  <si>
+    <t>Spotless, friendly.</t>
+  </si>
+  <si>
+    <t>We travel frequently in the States and all over the world.  This is the cleanest hotel I have ever stayed in--it was spotless.  All  the staff was helpful and especially friendly.   I wish I could be so lucky every other place I go.  I would recommend this hotel to everyone.  The staff will do everything to make your stay as comfortable as possible.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r20176423-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>20176423</t>
+  </si>
+  <si>
+    <t>09/18/2008</t>
+  </si>
+  <si>
+    <t>Good location, OK amenities</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights in the immediate aftermath of Hurricane Gustav.  The hotel on the whole is fine - typical Courtyard bedding, bath, etc.  I found the property did skimp in a couple of areas - no wireless internet in the rooms (only wired) and no free breakfast.  Fortunately the location is convenient to numerous restaurants, shopping, other hotels, etc. (some within walking distance) so you don't need to spend a lot of time at the hotel itself.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r16858577-Courtyard_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1768,6 +2731,39 @@
   </si>
   <si>
     <t>We recently stayed at this hotel on a business trip and it was a very good experience for us. My husband had business for 3 days and my girls and I were the only non-business people staying there (at least that was our impression) and we were treated FANTASTIC.  Especially the staff that worked the breakfast buffets in the morning-they took care of us with such care and enthusiasm that we looked forward to seeing them each morning.  The front desk were very helpful with our day trip plans and we had the run of the pool and hot tub.  Both were kept very clean and had fresh towels ready.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r7247390-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7247390</t>
+  </si>
+  <si>
+    <t>03/29/2007</t>
+  </si>
+  <si>
+    <t>Fine place for business</t>
+  </si>
+  <si>
+    <t>This hotel is a typical Courtyard.  The breakfast was great and the staff was great.  The rooms and hotel itself are fine.  Nothing more, nothing less.  For business travel the rate and the accomodations are fair.  Can't go wrong.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r6473435-Courtyard_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6473435</t>
+  </si>
+  <si>
+    <t>12/18/2006</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The only word to describe this hotel is disgusting.  After arriving late, I stayed up to complete some work.  When I went to go to  bed at 12:45am, it had a yellowish-brown stain on the bedspread.  I pulled back the covers and there was a huge wet spot in the middle of the bed.  They offered to move me to a new room, but as my colleague said, they already tried that with her the night before.  In the first room, there was no security locking bar.  In her second room, the lights wouldn't turn off!  We checked out as soon as we could.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107924-r4109606-Courtyard_Houston_Westchase-Houston_Texas.html</t>
@@ -2353,15 +3349,17 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2421,9 +3419,13 @@
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2477,16 +3479,14 @@
         <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -2495,13 +3495,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -2517,7 +3517,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2526,25 +3526,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2599,25 +3599,25 @@
         <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
         <v>4</v>
       </c>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2666,13 +3666,13 @@
         <v>99</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2684,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2706,52 +3706,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>109</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2767,56 +3771,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>118</v>
       </c>
       <c r="O9" t="s">
         <v>63</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2832,54 +3832,58 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>123</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
       <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2895,7 +3899,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2904,49 +3908,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -2962,7 +3960,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2971,25 +3969,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3001,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -3023,7 +4021,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -3032,37 +4030,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -3117,20 +4115,14 @@
         <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -3178,7 +4170,7 @@
         <v>167</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
         <v>168</v>
@@ -3187,16 +4179,14 @@
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3245,27 +4235,33 @@
         <v>176</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>177</v>
-      </c>
-      <c r="X16" t="s">
-        <v>178</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -3281,58 +4277,48 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
         <v>180</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>181</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>182</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
         <v>183</v>
       </c>
-      <c r="L17" t="s">
-        <v>184</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>185</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>186</v>
-      </c>
-      <c r="X17" t="s">
-        <v>187</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -3348,36 +4334,38 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>189</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>194</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
@@ -3385,19 +4373,19 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
@@ -3413,52 +4401,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>198</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>199</v>
       </c>
-      <c r="J19" t="s">
+      <c r="X19" t="s">
         <v>200</v>
       </c>
-      <c r="K19" t="s">
+      <c r="Y19" t="s">
         <v>201</v>
-      </c>
-      <c r="L19" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>194</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>203</v>
-      </c>
-      <c r="X19" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -3474,58 +4468,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
         <v>206</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" t="s">
-        <v>208</v>
-      </c>
-      <c r="K20" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" t="s">
-        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -3541,58 +4529,58 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>215</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="O21" t="s">
         <v>216</v>
       </c>
-      <c r="J21" t="s">
-        <v>217</v>
-      </c>
-      <c r="K21" t="s">
-        <v>218</v>
-      </c>
-      <c r="L21" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>211</v>
-      </c>
-      <c r="O21" t="s">
-        <v>220</v>
-      </c>
       <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -3608,34 +4596,34 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
         <v>222</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>223</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>224</v>
       </c>
-      <c r="K22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" t="s">
-        <v>226</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3646,14 +4634,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>227</v>
-      </c>
-      <c r="X22" t="s">
-        <v>213</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
@@ -3669,56 +4653,52 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
         <v>229</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" t="s">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s">
-        <v>233</v>
-      </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -3734,56 +4714,58 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>238</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>239</v>
-      </c>
-      <c r="J24" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" t="s">
-        <v>241</v>
-      </c>
-      <c r="L24" t="s">
-        <v>242</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>243</v>
-      </c>
       <c r="O24" t="s">
-        <v>82</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="X24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
@@ -3799,58 +4781,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>247</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J25" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" t="s">
-        <v>250</v>
-      </c>
-      <c r="L25" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>243</v>
-      </c>
       <c r="O25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -3866,56 +4848,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
         <v>255</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" t="s">
-        <v>258</v>
-      </c>
-      <c r="L26" t="s">
-        <v>259</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>260</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
@@ -3931,7 +4905,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3940,49 +4914,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
@@ -3998,7 +4972,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4007,47 +4981,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
@@ -4063,7 +5033,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4072,34 +5042,34 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
       <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -4108,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
@@ -4130,7 +5100,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4139,32 +5109,32 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>4</v>
@@ -4173,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="X30" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
@@ -4195,7 +5165,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4204,45 +5174,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>296</v>
+      </c>
+      <c r="X31" t="s">
+        <v>297</v>
+      </c>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
@@ -4258,7 +5226,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4267,16 +5235,16 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
@@ -4285,27 +5253,31 @@
         <v>304</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>305</v>
+      </c>
+      <c r="X32" t="s">
+        <v>306</v>
+      </c>
       <c r="Y32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
@@ -4321,25 +5293,25 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33" t="s">
+        <v>311</v>
+      </c>
+      <c r="L33" t="s">
         <v>312</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>313</v>
-      </c>
-      <c r="J33" t="s">
-        <v>314</v>
-      </c>
-      <c r="K33" t="s">
-        <v>315</v>
-      </c>
-      <c r="L33" t="s">
-        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -4348,9 +5320,11 @@
         <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
       <c r="Q33" t="n">
         <v>4</v>
       </c>
@@ -4358,15 +5332,19 @@
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>313</v>
+      </c>
+      <c r="X33" t="s">
+        <v>314</v>
+      </c>
       <c r="Y33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
@@ -4382,62 +5360,58 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" t="s">
         <v>318</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>319</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>320</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
         <v>321</v>
       </c>
-      <c r="L34" t="s">
-        <v>322</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>323</v>
-      </c>
       <c r="O34" t="s">
-        <v>150</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
+        <v>322</v>
+      </c>
+      <c r="X34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y34" t="s">
         <v>324</v>
-      </c>
-      <c r="X34" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="35">
@@ -4453,60 +5427,58 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" t="s">
         <v>327</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>328</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>329</v>
       </c>
-      <c r="K35" t="s">
-        <v>330</v>
-      </c>
-      <c r="L35" t="s">
-        <v>331</v>
-      </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="X35" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
@@ -4522,62 +5494,52 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
         <v>336</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
         <v>337</v>
-      </c>
-      <c r="J36" t="s">
-        <v>338</v>
-      </c>
-      <c r="K36" t="s">
-        <v>339</v>
-      </c>
-      <c r="L36" t="s">
-        <v>340</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s">
-        <v>341</v>
-      </c>
-      <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
-      <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s">
-        <v>342</v>
-      </c>
-      <c r="X36" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="37">
@@ -4593,7 +5555,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4602,25 +5564,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4632,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
@@ -4654,48 +5616,58 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>343</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
         <v>353</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="Y38" t="s">
         <v>354</v>
-      </c>
-      <c r="J38" t="s">
-        <v>355</v>
-      </c>
-      <c r="K38" t="s">
-        <v>356</v>
-      </c>
-      <c r="L38" t="s">
-        <v>357</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>358</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
-      <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="39">
@@ -4711,58 +5683,56 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
         <v>359</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
         <v>360</v>
-      </c>
-      <c r="J39" t="s">
-        <v>361</v>
-      </c>
-      <c r="K39" t="s">
-        <v>362</v>
-      </c>
-      <c r="L39" t="s">
-        <v>363</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>358</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>352</v>
+      </c>
+      <c r="X39" t="s">
+        <v>353</v>
+      </c>
       <c r="Y39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
@@ -4778,47 +5748,41 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
         <v>364</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>365</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>366</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>367</v>
       </c>
-      <c r="L40" t="s">
-        <v>368</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>369</v>
-      </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>4</v>
@@ -4826,10 +5790,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
       <c r="Y40" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
@@ -4845,7 +5813,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4854,49 +5822,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>376</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
@@ -4912,7 +5880,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4921,49 +5889,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>384</v>
+      </c>
+      <c r="X42" t="s">
+        <v>385</v>
+      </c>
       <c r="Y42" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
@@ -4979,7 +5941,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4988,37 +5950,33 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -5028,13 +5986,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="X43" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
@@ -5050,7 +6008,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5059,39 +6017,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>402</v>
+      </c>
+      <c r="X44" t="s">
+        <v>403</v>
+      </c>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
@@ -5107,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5116,49 +6082,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
-        <v>403</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>410</v>
+      </c>
+      <c r="X45" t="s">
+        <v>411</v>
+      </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
@@ -5174,7 +6140,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5183,49 +6149,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>419</v>
+      </c>
+      <c r="X46" t="s">
+        <v>420</v>
+      </c>
       <c r="Y46" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47">
@@ -5241,7 +6205,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5250,49 +6214,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>419</v>
+      </c>
+      <c r="X47" t="s">
+        <v>420</v>
+      </c>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
@@ -5308,7 +6266,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5317,49 +6275,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>150</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="n">
-        <v>3</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>419</v>
+      </c>
+      <c r="X48" t="s">
+        <v>420</v>
+      </c>
       <c r="Y48" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49">
@@ -5375,7 +6333,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5384,34 +6342,30 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s">
-        <v>423</v>
-      </c>
-      <c r="O49" t="s">
-        <v>150</v>
-      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5423,10 +6377,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" t="s">
+        <v>442</v>
+      </c>
       <c r="Y49" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
@@ -5442,7 +6400,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5451,38 +6409,32 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
         <v>434</v>
       </c>
-      <c r="M50" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s">
-        <v>435</v>
-      </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
+        <v>73</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
         <v>3</v>
       </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
         <v>4</v>
@@ -5490,10 +6442,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>449</v>
+      </c>
+      <c r="X50" t="s">
+        <v>450</v>
+      </c>
       <c r="Y50" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51">
@@ -5509,7 +6465,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5518,41 +6474,37 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="L51" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5560,7 +6512,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
@@ -5576,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5585,35 +6537,31 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="J52" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="K52" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
         <v>5</v>
       </c>
@@ -5627,7 +6575,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53">
@@ -5643,7 +6591,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5652,49 +6600,39 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="J53" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="K53" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="L53" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
@@ -5710,7 +6648,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5719,37 +6657,37 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="J54" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
         <v>457</v>
       </c>
-      <c r="L54" t="s">
-        <v>458</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
       <c r="P54" t="n">
         <v>3</v>
       </c>
       <c r="Q54" t="n">
         <v>3</v>
       </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>3</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5757,7 +6695,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55">
@@ -5773,7 +6711,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5782,41 +6720,35 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="J55" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5824,7 +6756,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56">
@@ -5840,7 +6772,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5849,39 +6781,53 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
       <c r="Y56" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
@@ -5897,7 +6843,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5906,45 +6852,53 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="J57" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="K57" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="L57" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>496</v>
+      </c>
+      <c r="O57" t="s">
+        <v>183</v>
+      </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
         <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>488</v>
+      </c>
+      <c r="X57" t="s">
+        <v>489</v>
+      </c>
       <c r="Y57" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58">
@@ -5960,7 +6914,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5969,49 +6923,53 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="J58" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="K58" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="L58" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>488</v>
+      </c>
+      <c r="X58" t="s">
+        <v>489</v>
+      </c>
       <c r="Y58" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59">
@@ -6027,7 +6985,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6036,47 +6994,51 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="J59" t="s">
-        <v>484</v>
-      </c>
-      <c r="K59" t="s"/>
+        <v>507</v>
+      </c>
+      <c r="K59" t="s">
+        <v>508</v>
+      </c>
       <c r="L59" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="O59" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>510</v>
+      </c>
+      <c r="X59" t="s">
+        <v>511</v>
+      </c>
       <c r="Y59" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60">
@@ -6092,7 +7054,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6101,49 +7063,53 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="K60" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
         <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>518</v>
+      </c>
+      <c r="X60" t="s">
+        <v>519</v>
+      </c>
       <c r="Y60" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61">
@@ -6159,7 +7125,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6168,49 +7134,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="J61" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="L61" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>526</v>
+      </c>
+      <c r="X61" t="s">
+        <v>527</v>
+      </c>
       <c r="Y61" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62">
@@ -6226,7 +7186,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6235,49 +7195,53 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="J62" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="K62" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="L62" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="O62" t="s">
         <v>53</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>534</v>
+      </c>
+      <c r="X62" t="s">
+        <v>535</v>
+      </c>
       <c r="Y62" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63">
@@ -6293,7 +7257,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6302,47 +7266,53 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="J63" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="K63" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="L63" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
-      </c>
-      <c r="S63" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>534</v>
+      </c>
+      <c r="X63" t="s">
+        <v>535</v>
+      </c>
       <c r="Y63" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64">
@@ -6358,7 +7328,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6367,45 +7337,39 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="J64" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="K64" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="L64" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65">
@@ -6421,7 +7385,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6430,37 +7394,41 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="J65" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="K65" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="L65" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
+      <c r="N65" t="s">
+        <v>549</v>
+      </c>
+      <c r="O65" t="s">
+        <v>73</v>
+      </c>
       <c r="P65" t="n">
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6468,7 +7436,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66">
@@ -6484,7 +7452,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6493,34 +7461,34 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="K66" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="L66" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S66" t="n">
         <v>4</v>
@@ -6535,7 +7503,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67">
@@ -6551,7 +7519,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6560,41 +7528,41 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="J67" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="K67" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="L67" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6602,7 +7570,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68">
@@ -6618,7 +7586,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6627,41 +7595,41 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="J68" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="K68" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="L68" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6669,7 +7637,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69">
@@ -6685,7 +7653,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6694,37 +7662,37 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="J69" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="K69" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="L69" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
         <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
@@ -6736,7 +7704,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70">
@@ -6752,7 +7720,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6761,39 +7729,49 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="J70" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="K70" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="L70" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>576</v>
+      </c>
+      <c r="O70" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" t="n">
         <v>3</v>
       </c>
-      <c r="N70" t="s">
-        <v>554</v>
-      </c>
-      <c r="O70" t="s">
-        <v>53</v>
-      </c>
-      <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="71">
@@ -6809,7 +7787,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6818,35 +7796,53 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="J71" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="K71" t="s">
-        <v>559</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
-      <c r="N71" t="s"/>
-      <c r="O71" t="s"/>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
-      <c r="R71" t="s"/>
-      <c r="S71" t="s"/>
+      <c r="N71" t="s">
+        <v>588</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
       <c r="T71" t="s"/>
-      <c r="U71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>589</v>
+      </c>
+      <c r="X71" t="s">
+        <v>590</v>
+      </c>
       <c r="Y71" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72">
@@ -6862,7 +7858,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6871,25 +7867,25 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="J72" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="K72" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="L72" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="O72" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6910,10 +7906,14 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>589</v>
+      </c>
+      <c r="X72" t="s">
+        <v>590</v>
+      </c>
       <c r="Y72" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73">
@@ -6929,7 +7929,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6938,35 +7938,49 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="J73" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="K73" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="L73" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s"/>
       <c r="O73" t="s"/>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
-      <c r="S73" t="s"/>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
       <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
+      <c r="W73" t="s">
+        <v>589</v>
+      </c>
+      <c r="X73" t="s">
+        <v>590</v>
+      </c>
       <c r="Y73" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74">
@@ -6982,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6991,47 +8005,39 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="J74" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="K74" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="L74" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
       <c r="R74" t="s"/>
-      <c r="S74" t="n">
-        <v>3</v>
-      </c>
+      <c r="S74" t="s"/>
       <c r="T74" t="s"/>
-      <c r="U74" t="n">
-        <v>1</v>
-      </c>
+      <c r="U74" t="s"/>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75">
@@ -7047,7 +8053,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7056,33 +8062,35 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="J75" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="K75" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="L75" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
         <v>3</v>
       </c>
-      <c r="Q75" t="n">
-        <v>4</v>
-      </c>
-      <c r="R75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
       <c r="S75" t="n">
         <v>4</v>
       </c>
@@ -7096,7 +8104,3247 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>586</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>618</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>619</v>
+      </c>
+      <c r="J76" t="s">
+        <v>620</v>
+      </c>
+      <c r="K76" t="s">
+        <v>621</v>
+      </c>
+      <c r="L76" t="s">
+        <v>622</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>616</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>624</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>625</v>
+      </c>
+      <c r="J77" t="s">
+        <v>626</v>
+      </c>
+      <c r="K77" t="s">
+        <v>627</v>
+      </c>
+      <c r="L77" t="s">
+        <v>628</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>616</v>
+      </c>
+      <c r="O77" t="s">
+        <v>216</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>629</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>630</v>
+      </c>
+      <c r="J78" t="s">
+        <v>631</v>
+      </c>
+      <c r="K78" t="s">
+        <v>632</v>
+      </c>
+      <c r="L78" t="s">
+        <v>633</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>634</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>635</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>636</v>
+      </c>
+      <c r="J79" t="s">
+        <v>637</v>
+      </c>
+      <c r="K79" t="s">
+        <v>638</v>
+      </c>
+      <c r="L79" t="s">
+        <v>639</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>634</v>
+      </c>
+      <c r="O79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>642</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>646</v>
+      </c>
+      <c r="O80" t="s">
+        <v>216</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>649</v>
+      </c>
+      <c r="J81" t="s">
+        <v>650</v>
+      </c>
+      <c r="K81" t="s">
+        <v>651</v>
+      </c>
+      <c r="L81" t="s">
+        <v>652</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>646</v>
+      </c>
+      <c r="O81" t="s">
+        <v>216</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>653</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>654</v>
+      </c>
+      <c r="J82" t="s">
+        <v>655</v>
+      </c>
+      <c r="K82" t="s">
+        <v>656</v>
+      </c>
+      <c r="L82" t="s">
+        <v>657</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>646</v>
+      </c>
+      <c r="O82" t="s">
+        <v>73</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>658</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>659</v>
+      </c>
+      <c r="J83" t="s">
+        <v>660</v>
+      </c>
+      <c r="K83" t="s">
+        <v>661</v>
+      </c>
+      <c r="L83" t="s">
+        <v>662</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>663</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>665</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>666</v>
+      </c>
+      <c r="J84" t="s">
+        <v>667</v>
+      </c>
+      <c r="K84" t="s">
+        <v>668</v>
+      </c>
+      <c r="L84" t="s">
+        <v>669</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>670</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>671</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>672</v>
+      </c>
+      <c r="J85" t="s">
+        <v>673</v>
+      </c>
+      <c r="K85" t="s">
+        <v>674</v>
+      </c>
+      <c r="L85" t="s">
+        <v>675</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>676</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>678</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>679</v>
+      </c>
+      <c r="J86" t="s">
+        <v>680</v>
+      </c>
+      <c r="K86" t="s">
+        <v>681</v>
+      </c>
+      <c r="L86" t="s">
+        <v>682</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>676</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>683</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>684</v>
+      </c>
+      <c r="J87" t="s">
+        <v>685</v>
+      </c>
+      <c r="K87" t="s">
+        <v>686</v>
+      </c>
+      <c r="L87" t="s">
+        <v>687</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>676</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>688</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>689</v>
+      </c>
+      <c r="J88" t="s">
+        <v>690</v>
+      </c>
+      <c r="K88" t="s">
+        <v>691</v>
+      </c>
+      <c r="L88" t="s">
+        <v>692</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>676</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>693</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>694</v>
+      </c>
+      <c r="J89" t="s">
+        <v>695</v>
+      </c>
+      <c r="K89" t="s">
+        <v>696</v>
+      </c>
+      <c r="L89" t="s">
+        <v>697</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>670</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>699</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>700</v>
+      </c>
+      <c r="J90" t="s">
+        <v>701</v>
+      </c>
+      <c r="K90" t="s">
+        <v>702</v>
+      </c>
+      <c r="L90" t="s">
+        <v>703</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>704</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>705</v>
+      </c>
+      <c r="J91" t="s">
+        <v>706</v>
+      </c>
+      <c r="K91" t="s">
+        <v>707</v>
+      </c>
+      <c r="L91" t="s">
+        <v>708</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>670</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>709</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>710</v>
+      </c>
+      <c r="J92" t="s">
+        <v>711</v>
+      </c>
+      <c r="K92" t="s">
+        <v>712</v>
+      </c>
+      <c r="L92" t="s">
+        <v>713</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>670</v>
+      </c>
+      <c r="O92" t="s">
+        <v>73</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>715</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>716</v>
+      </c>
+      <c r="J93" t="s">
+        <v>717</v>
+      </c>
+      <c r="K93" t="s">
+        <v>718</v>
+      </c>
+      <c r="L93" t="s">
+        <v>719</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>720</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>722</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>723</v>
+      </c>
+      <c r="J94" t="s">
+        <v>724</v>
+      </c>
+      <c r="K94" t="s">
+        <v>725</v>
+      </c>
+      <c r="L94" t="s">
+        <v>726</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>720</v>
+      </c>
+      <c r="O94" t="s">
+        <v>73</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>727</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>728</v>
+      </c>
+      <c r="J95" t="s">
+        <v>729</v>
+      </c>
+      <c r="K95" t="s">
+        <v>730</v>
+      </c>
+      <c r="L95" t="s">
+        <v>731</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>733</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>734</v>
+      </c>
+      <c r="J96" t="s">
+        <v>735</v>
+      </c>
+      <c r="K96" t="s">
+        <v>736</v>
+      </c>
+      <c r="L96" t="s">
+        <v>737</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>738</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>739</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>740</v>
+      </c>
+      <c r="J97" t="s">
+        <v>741</v>
+      </c>
+      <c r="K97" t="s">
+        <v>742</v>
+      </c>
+      <c r="L97" t="s">
+        <v>743</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>744</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>746</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>747</v>
+      </c>
+      <c r="J98" t="s">
+        <v>748</v>
+      </c>
+      <c r="K98" t="s">
+        <v>749</v>
+      </c>
+      <c r="L98" t="s">
+        <v>750</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>751</v>
+      </c>
+      <c r="O98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>753</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>754</v>
+      </c>
+      <c r="J99" t="s">
+        <v>755</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s">
+        <v>756</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>751</v>
+      </c>
+      <c r="O99" t="s">
+        <v>183</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>758</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>759</v>
+      </c>
+      <c r="J100" t="s">
+        <v>760</v>
+      </c>
+      <c r="K100" t="s">
+        <v>761</v>
+      </c>
+      <c r="L100" t="s">
+        <v>762</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>763</v>
+      </c>
+      <c r="O100" t="s">
+        <v>73</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>764</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>765</v>
+      </c>
+      <c r="J101" t="s">
+        <v>766</v>
+      </c>
+      <c r="K101" t="s">
+        <v>767</v>
+      </c>
+      <c r="L101" t="s">
+        <v>768</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>769</v>
+      </c>
+      <c r="O101" t="s">
+        <v>73</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>771</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>772</v>
+      </c>
+      <c r="J102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K102" t="s">
+        <v>774</v>
+      </c>
+      <c r="L102" t="s">
+        <v>775</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>776</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>778</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>779</v>
+      </c>
+      <c r="J103" t="s">
+        <v>780</v>
+      </c>
+      <c r="K103" t="s">
+        <v>781</v>
+      </c>
+      <c r="L103" t="s">
+        <v>782</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>783</v>
+      </c>
+      <c r="O103" t="s">
+        <v>73</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>785</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>786</v>
+      </c>
+      <c r="J104" t="s">
+        <v>787</v>
+      </c>
+      <c r="K104" t="s">
+        <v>788</v>
+      </c>
+      <c r="L104" t="s">
+        <v>789</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>790</v>
+      </c>
+      <c r="O104" t="s">
+        <v>73</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>792</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>793</v>
+      </c>
+      <c r="J105" t="s">
+        <v>794</v>
+      </c>
+      <c r="K105" t="s">
+        <v>795</v>
+      </c>
+      <c r="L105" t="s">
+        <v>796</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>797</v>
+      </c>
+      <c r="O105" t="s">
+        <v>73</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>798</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>799</v>
+      </c>
+      <c r="J106" t="s">
+        <v>800</v>
+      </c>
+      <c r="K106" t="s">
+        <v>801</v>
+      </c>
+      <c r="L106" t="s">
+        <v>802</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>803</v>
+      </c>
+      <c r="O106" t="s">
+        <v>73</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>804</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>805</v>
+      </c>
+      <c r="J107" t="s">
+        <v>800</v>
+      </c>
+      <c r="K107" t="s">
+        <v>806</v>
+      </c>
+      <c r="L107" t="s">
+        <v>807</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>808</v>
+      </c>
+      <c r="O107" t="s">
+        <v>216</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>809</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>810</v>
+      </c>
+      <c r="J108" t="s">
+        <v>811</v>
+      </c>
+      <c r="K108" t="s">
+        <v>812</v>
+      </c>
+      <c r="L108" t="s">
+        <v>813</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>808</v>
+      </c>
+      <c r="O108" t="s">
+        <v>73</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>814</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>815</v>
+      </c>
+      <c r="J109" t="s">
+        <v>816</v>
+      </c>
+      <c r="K109" t="s">
+        <v>817</v>
+      </c>
+      <c r="L109" t="s">
+        <v>818</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>819</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J110" t="s">
+        <v>821</v>
+      </c>
+      <c r="K110" t="s">
+        <v>822</v>
+      </c>
+      <c r="L110" t="s">
+        <v>823</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>824</v>
+      </c>
+      <c r="O110" t="s">
+        <v>73</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>825</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>826</v>
+      </c>
+      <c r="J111" t="s">
+        <v>827</v>
+      </c>
+      <c r="K111" t="s">
+        <v>828</v>
+      </c>
+      <c r="L111" t="s">
+        <v>829</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s">
+        <v>830</v>
+      </c>
+      <c r="O111" t="s">
+        <v>73</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>832</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>833</v>
+      </c>
+      <c r="J112" t="s">
+        <v>834</v>
+      </c>
+      <c r="K112" t="s">
+        <v>835</v>
+      </c>
+      <c r="L112" t="s">
+        <v>836</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>830</v>
+      </c>
+      <c r="O112" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>838</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>839</v>
+      </c>
+      <c r="J113" t="s">
+        <v>840</v>
+      </c>
+      <c r="K113" t="s">
+        <v>841</v>
+      </c>
+      <c r="L113" t="s">
+        <v>842</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>843</v>
+      </c>
+      <c r="O113" t="s">
+        <v>73</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>844</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>845</v>
+      </c>
+      <c r="J114" t="s">
+        <v>846</v>
+      </c>
+      <c r="K114" t="s">
+        <v>847</v>
+      </c>
+      <c r="L114" t="s">
+        <v>848</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>849</v>
+      </c>
+      <c r="O114" t="s">
+        <v>73</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>850</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>851</v>
+      </c>
+      <c r="J115" t="s">
+        <v>852</v>
+      </c>
+      <c r="K115" t="s">
+        <v>853</v>
+      </c>
+      <c r="L115" t="s">
+        <v>854</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>849</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>855</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>856</v>
+      </c>
+      <c r="J116" t="s">
+        <v>857</v>
+      </c>
+      <c r="K116" t="s">
+        <v>858</v>
+      </c>
+      <c r="L116" t="s">
+        <v>859</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>860</v>
+      </c>
+      <c r="O116" t="s">
+        <v>73</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>862</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>863</v>
+      </c>
+      <c r="J117" t="s">
+        <v>864</v>
+      </c>
+      <c r="K117" t="s">
+        <v>865</v>
+      </c>
+      <c r="L117" t="s">
+        <v>866</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>867</v>
+      </c>
+      <c r="O117" t="s">
+        <v>183</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>868</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>869</v>
+      </c>
+      <c r="J118" t="s">
+        <v>870</v>
+      </c>
+      <c r="K118" t="s">
+        <v>871</v>
+      </c>
+      <c r="L118" t="s">
+        <v>872</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="s"/>
+      <c r="R118" t="s"/>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>873</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>874</v>
+      </c>
+      <c r="J119" t="s">
+        <v>875</v>
+      </c>
+      <c r="K119" t="s">
+        <v>876</v>
+      </c>
+      <c r="L119" t="s">
+        <v>877</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="s"/>
+      <c r="Q119" t="s"/>
+      <c r="R119" t="s"/>
+      <c r="S119" t="s"/>
+      <c r="T119" t="s"/>
+      <c r="U119" t="s"/>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>879</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>880</v>
+      </c>
+      <c r="J120" t="s">
+        <v>881</v>
+      </c>
+      <c r="K120" t="s">
+        <v>882</v>
+      </c>
+      <c r="L120" t="s">
+        <v>883</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>884</v>
+      </c>
+      <c r="O120" t="s">
+        <v>63</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>885</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>886</v>
+      </c>
+      <c r="J121" t="s">
+        <v>887</v>
+      </c>
+      <c r="K121" t="s">
+        <v>888</v>
+      </c>
+      <c r="L121" t="s">
+        <v>889</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>891</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>892</v>
+      </c>
+      <c r="J122" t="s">
+        <v>893</v>
+      </c>
+      <c r="K122" t="s">
+        <v>894</v>
+      </c>
+      <c r="L122" t="s">
+        <v>895</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="s"/>
+      <c r="O122" t="s"/>
+      <c r="P122" t="s"/>
+      <c r="Q122" t="s"/>
+      <c r="R122" t="s"/>
+      <c r="S122" t="s"/>
+      <c r="T122" t="s"/>
+      <c r="U122" t="s"/>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>896</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>897</v>
+      </c>
+      <c r="J123" t="s">
+        <v>898</v>
+      </c>
+      <c r="K123" t="s">
+        <v>899</v>
+      </c>
+      <c r="L123" t="s">
+        <v>900</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>901</v>
+      </c>
+      <c r="O123" t="s">
+        <v>73</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>902</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>903</v>
+      </c>
+      <c r="J124" t="s">
+        <v>904</v>
+      </c>
+      <c r="K124" t="s">
+        <v>905</v>
+      </c>
+      <c r="L124" t="s">
+        <v>906</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
+        <v>907</v>
+      </c>
+      <c r="O124" t="s">
+        <v>73</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="s"/>
+      <c r="S124" t="n">
+        <v>3</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>1</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>34343</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>908</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>909</v>
+      </c>
+      <c r="J125" t="s">
+        <v>910</v>
+      </c>
+      <c r="K125" t="s">
+        <v>911</v>
+      </c>
+      <c r="L125" t="s">
+        <v>912</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="s">
+        <v>913</v>
+      </c>
+      <c r="O125" t="s">
+        <v>73</v>
+      </c>
+      <c r="P125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>4</v>
+      </c>
+      <c r="R125" t="s"/>
+      <c r="S125" t="n">
+        <v>4</v>
+      </c>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>4</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
